--- a/AMGN.xlsx
+++ b/AMGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792212F-8F80-914C-9F5D-2A38D4EA5F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C6A2E6-7CFA-4C5A-A172-E92B0742F909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37660" yWindow="-20480" windowWidth="30840" windowHeight="18960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39705" yWindow="1980" windowWidth="28230" windowHeight="17955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="75" r:id="rId1"/>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="1324">
   <si>
     <t>A randomized, double-blind, placebo-controlled, phase III study of filgrastim in remission induction and consolidation therapy for adults with de novo AML.</t>
   </si>
@@ -5638,6 +5638,15 @@
   <si>
     <t>6/10/2023: Completes Horizon acquisition.</t>
   </si>
+  <si>
+    <t>R&amp;D: Jay Bradner</t>
+  </si>
+  <si>
+    <t>CCO: Murdo Gordon</t>
+  </si>
+  <si>
+    <t>Rare Disease: Vikram Karnani</t>
+  </si>
 </sst>
 </file>
 
@@ -5647,7 +5656,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6767,18 +6776,18 @@
       <selection pane="bottomRight" activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>1210</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="25" t="s">
         <v>213</v>
       </c>
@@ -6812,82 +6821,82 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="5" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="5" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="5" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="5" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="5" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="5" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="B11" s="5" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="5" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="5" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="110" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="110" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="110" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="110" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="110" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="25" t="s">
         <v>212</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="25" t="s">
         <v>1051</v>
       </c>
@@ -6923,7 +6932,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="66"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:8">
       <c r="B24" s="68" t="s">
         <v>1144</v>
       </c>
@@ -6940,7 +6949,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:8">
       <c r="B25" s="25" t="s">
         <v>1044</v>
       </c>
@@ -6959,7 +6968,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:8">
       <c r="B26" s="68" t="s">
         <v>538</v>
       </c>
@@ -6972,7 +6981,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="24"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:8">
       <c r="B27" s="25" t="s">
         <v>126</v>
       </c>
@@ -6990,7 +6999,7 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:8">
       <c r="B28" s="5" t="s">
         <v>133</v>
       </c>
@@ -7026,21 +7035,21 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -7048,7 +7057,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7056,7 +7065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7064,17 +7073,17 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="4" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -7082,7 +7091,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>986</v>
       </c>
@@ -7090,7 +7099,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
         <v>811</v>
       </c>
@@ -7098,7 +7107,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
         <v>496</v>
       </c>
@@ -7106,7 +7115,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" s="10" t="s">
         <v>600</v>
       </c>
@@ -7114,7 +7123,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
         <v>732</v>
       </c>
@@ -7122,7 +7131,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" s="4" t="s">
         <v>444</v>
       </c>
@@ -7130,7 +7139,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>486</v>
       </c>
@@ -7138,12 +7147,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="10" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="B16" s="4" t="s">
         <v>112</v>
       </c>
@@ -7151,27 +7160,27 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="C17" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="C18" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="C19" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="C20" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="4" t="s">
         <v>1007</v>
       </c>
@@ -7180,7 +7189,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
         <v>254</v>
       </c>
@@ -7189,7 +7198,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
         <v>1010</v>
       </c>
@@ -7198,7 +7207,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
         <v>595</v>
       </c>
@@ -7207,7 +7216,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
         <v>802</v>
       </c>
@@ -7216,7 +7225,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -7225,13 +7234,13 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="C27" s="4" t="s">
         <v>426</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
         <v>144</v>
       </c>
@@ -7240,372 +7249,372 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4">
       <c r="C30" s="22" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4">
       <c r="C31" s="4" t="s">
         <v>399</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="C32" s="4" t="s">
         <v>400</v>
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="4" t="s">
         <v>401</v>
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4">
       <c r="C35" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4">
       <c r="C36" s="16" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4">
       <c r="C37" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4">
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4">
       <c r="C39" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4">
       <c r="C40" s="16" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4">
       <c r="C41" s="16" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4">
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4">
       <c r="C43" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4">
       <c r="C44" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4">
       <c r="C46" s="22" t="s">
         <v>395</v>
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4">
       <c r="C47" s="4" t="s">
         <v>630</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4">
       <c r="C48" s="4" t="s">
         <v>631</v>
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="C50" s="22" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4">
       <c r="C51" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="C52" s="16" t="s">
         <v>794</v>
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4">
       <c r="C53" s="16" t="s">
         <v>795</v>
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4">
       <c r="C54" s="16" t="s">
         <v>796</v>
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4">
       <c r="C55" s="16" t="s">
         <v>694</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4">
       <c r="C56" s="16" t="s">
         <v>797</v>
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:4">
       <c r="C57" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:4">
       <c r="C58" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:4">
       <c r="C59" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:4">
       <c r="C61" s="22" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:4">
       <c r="C62" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:4">
       <c r="C63" s="4" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:4">
       <c r="C64" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:3">
       <c r="C65" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:3">
       <c r="C67" s="22" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:3">
       <c r="C68" s="4" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:3">
       <c r="C70" s="22" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:3">
       <c r="C71" s="16" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:3">
       <c r="C73" s="22" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:3">
       <c r="C74" s="10" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:3">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:3">
       <c r="C76" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:3">
       <c r="C77" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:3">
       <c r="C78" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:3">
       <c r="C79" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:3">
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3">
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:3">
       <c r="C82" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:3">
       <c r="C83" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:3">
       <c r="C84" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:3">
       <c r="C86" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:3">
       <c r="C87" s="4" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:3">
       <c r="C88" s="4" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:3">
       <c r="C89" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:3">
       <c r="C90" s="4" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:3">
       <c r="C91" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:3">
       <c r="C92" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:3">
       <c r="C93" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:3">
       <c r="C94" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:3">
       <c r="C95" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:4">
       <c r="C97" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:4">
       <c r="C98" s="4" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:4">
       <c r="C99" s="4" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:4">
       <c r="C100" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:4">
       <c r="C101" s="4" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:4">
       <c r="C102" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:4" ht="13.5" customHeight="1">
       <c r="C104" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:4" ht="12.75" customHeight="1">
       <c r="C105" s="4" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="106" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:4" ht="12.75" customHeight="1">
       <c r="C106" s="4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:4">
       <c r="C107" s="4" t="s">
         <v>74</v>
       </c>
@@ -7613,7 +7622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:4">
       <c r="C108" s="4" t="s">
         <v>76</v>
       </c>
@@ -7621,7 +7630,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:4">
       <c r="C109" s="4" t="s">
         <v>610</v>
       </c>
@@ -7629,7 +7638,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:4">
       <c r="C110" s="4" t="s">
         <v>644</v>
       </c>
@@ -7637,335 +7646,335 @@
         <v>609</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:4">
       <c r="D111" s="4" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:4">
       <c r="D112" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:4">
       <c r="D113" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:4">
       <c r="D114" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:4">
       <c r="D115" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:4">
       <c r="D116" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:4">
       <c r="D117" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:4">
       <c r="C119" s="22" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:4">
       <c r="C120" s="4" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:4">
       <c r="C121" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:4">
       <c r="C122" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:4">
       <c r="C123" s="4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:4">
       <c r="C125" s="22" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:4">
       <c r="C126" s="16" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:4">
       <c r="C127" s="4" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:4">
       <c r="C128" s="4" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:3">
       <c r="C130" s="22" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:3">
       <c r="C131" s="4" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:3">
       <c r="C132" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:3">
       <c r="C134" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:3">
       <c r="C135" s="4" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:3">
       <c r="C136" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:3">
       <c r="C137" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:3">
       <c r="C139" s="4" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:3">
       <c r="C141" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:3">
       <c r="C142" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:3">
       <c r="C144" s="22" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:3">
       <c r="C145" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:3">
       <c r="C147" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:3">
       <c r="C148" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:3">
       <c r="C149" s="4" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:3">
       <c r="C150" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:3">
       <c r="C151" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="3:3">
       <c r="C152" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:3">
       <c r="C153" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:3">
       <c r="C154" s="4" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:3">
       <c r="C155" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:3">
       <c r="C158" s="4" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:3">
       <c r="C160" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:3">
       <c r="C161" s="16" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:3">
       <c r="C162" s="16" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:3">
       <c r="C164" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:3">
       <c r="C165" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:3">
       <c r="C166" s="22"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:3">
       <c r="C168" s="22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:3">
       <c r="C169" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:3">
       <c r="C170" s="4" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:3">
       <c r="C172" s="22" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:3">
       <c r="C173" s="4" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:3">
       <c r="C174" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:3">
       <c r="C175" s="4" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:3">
       <c r="C177" s="22" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:3">
       <c r="C178" s="4" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:3">
       <c r="C179" s="4" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:3">
       <c r="C181" s="22" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:3">
       <c r="C182" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:3">
       <c r="C183" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:3">
       <c r="C185" s="22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:3">
       <c r="C186" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:3">
       <c r="C188" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:3">
       <c r="C191" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:3">
       <c r="C194" s="22" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:3">
       <c r="C195" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:3">
       <c r="C196" s="4" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:3">
       <c r="C197" s="4" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:3">
       <c r="C200" s="22" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:3">
       <c r="C201" s="16" t="s">
         <v>1076</v>
       </c>
@@ -7995,22 +8004,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="11" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>554</v>
       </c>
@@ -8018,7 +8027,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>878</v>
       </c>
@@ -8026,7 +8035,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>119</v>
       </c>
@@ -8034,7 +8043,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>120</v>
       </c>
@@ -8042,7 +8051,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -8050,62 +8059,62 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="C10" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3">
       <c r="C11" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3">
       <c r="C12" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3">
       <c r="C13" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3">
       <c r="B15" s="21" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>977</v>
       </c>
@@ -8127,19 +8136,19 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -8147,7 +8156,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -8155,7 +8164,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>811</v>
       </c>
@@ -8163,7 +8172,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -8171,12 +8180,12 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -8184,12 +8193,12 @@
         <v>752</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="4" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -8197,7 +8206,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
         <v>359</v>
       </c>
@@ -8205,7 +8214,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
         <v>531</v>
       </c>
@@ -8213,7 +8222,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
         <v>1007</v>
       </c>
@@ -8221,7 +8230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" s="4" t="s">
         <v>600</v>
       </c>
@@ -8229,42 +8238,42 @@
         <v>974</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4">
       <c r="C18" s="22" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="C19" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="C20" s="4" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:4">
       <c r="D21" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="C23" s="4" t="s">
         <v>638</v>
       </c>
@@ -8289,23 +8298,23 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.1640625" style="4"/>
-    <col min="10" max="10" width="22.33203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="22.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -8313,7 +8322,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8329,7 +8338,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="4" t="s">
         <v>811</v>
       </c>
@@ -8337,12 +8346,12 @@
         <v>635</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="C6" s="4" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -8350,12 +8359,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="C8" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" s="4" t="s">
         <v>896</v>
       </c>
@@ -8363,7 +8372,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="4" t="s">
         <v>898</v>
       </c>
@@ -8372,7 +8381,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="4" t="s">
         <v>359</v>
       </c>
@@ -8381,7 +8390,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="4" t="s">
         <v>904</v>
       </c>
@@ -8390,7 +8399,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
@@ -8399,57 +8408,57 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="22" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="B20" s="4" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="B21" s="4" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="B22" s="14" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="B23" s="16" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:16">
       <c r="B24" s="51" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:16">
       <c r="K25" s="4" t="s">
         <v>573</v>
       </c>
@@ -8466,7 +8475,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:16">
       <c r="B26" s="22" t="s">
         <v>1040</v>
       </c>
@@ -8483,12 +8492,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:16">
       <c r="B27" s="27" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" ht="13.5" thickBot="1">
       <c r="B28" s="27" t="s">
         <v>592</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="B29" s="27" t="s">
         <v>594</v>
       </c>
@@ -8511,14 +8520,14 @@
       <c r="O29" s="46"/>
       <c r="P29" s="47"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="B30" s="27" t="s">
         <v>944</v>
       </c>
       <c r="K30" s="39"/>
       <c r="P30" s="40"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="K31" s="39" t="s">
         <v>578</v>
       </c>
@@ -8533,7 +8542,7 @@
       </c>
       <c r="P31" s="40"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="B32" s="22" t="s">
         <v>1058</v>
       </c>
@@ -8554,7 +8563,7 @@
       </c>
       <c r="P32" s="40"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33" s="16" t="s">
         <v>909</v>
       </c>
@@ -8572,7 +8581,7 @@
       </c>
       <c r="P33" s="40"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16">
       <c r="B34" s="16" t="s">
         <v>1057</v>
       </c>
@@ -8585,7 +8594,7 @@
       </c>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16">
       <c r="K35" s="39"/>
       <c r="M35" s="4" t="s">
         <v>582</v>
@@ -8595,7 +8604,7 @@
       </c>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16">
       <c r="B36" s="22" t="s">
         <v>910</v>
       </c>
@@ -8613,7 +8622,7 @@
       </c>
       <c r="P36" s="40"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
         <v>911</v>
       </c>
@@ -8631,7 +8640,7 @@
       </c>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16">
       <c r="K38" s="39" t="s">
         <v>90</v>
       </c>
@@ -8646,7 +8655,7 @@
       </c>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16">
       <c r="B39" s="22" t="s">
         <v>1021</v>
       </c>
@@ -8664,7 +8673,7 @@
       </c>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16">
       <c r="B40" s="22"/>
       <c r="K40" s="39" t="s">
         <v>587</v>
@@ -8680,7 +8689,7 @@
       </c>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16">
       <c r="B41" s="22" t="s">
         <v>1020</v>
       </c>
@@ -8698,16 +8707,16 @@
       </c>
       <c r="P41" s="40"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16">
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16">
       <c r="B43" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="2:16" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" ht="13.5" thickBot="1">
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -8718,20 +8727,20 @@
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:16">
       <c r="B46" s="22" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16">
       <c r="B47" s="16" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16">
       <c r="B48" s="16"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12">
       <c r="B49" s="22" t="s">
         <v>1025</v>
       </c>
@@ -8742,7 +8751,7 @@
         <v>10414</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12">
       <c r="B50" s="16" t="s">
         <v>232</v>
       </c>
@@ -8753,7 +8762,7 @@
         <v>12661</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12">
       <c r="B51" s="16"/>
       <c r="K51" s="58">
         <v>39539</v>
@@ -8762,87 +8771,87 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12">
       <c r="B52" s="22" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12">
       <c r="B53" s="16" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12">
       <c r="B55" s="22" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12">
       <c r="B56" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12">
       <c r="B57" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12">
       <c r="B58" s="14" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12">
       <c r="B59" s="14" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12">
       <c r="B60" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12">
       <c r="B63" s="22" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3">
       <c r="B65" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3">
       <c r="C66" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3">
       <c r="C67" s="4" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3">
       <c r="B69" s="22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:3">
       <c r="B71" s="22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:3">
       <c r="B73" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:3">
       <c r="B74" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:3">
       <c r="B75" s="4" t="s">
         <v>117</v>
       </c>
@@ -8869,25 +8878,25 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="4"/>
-    <col min="4" max="4" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>335</v>
@@ -8902,7 +8911,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -8910,7 +8919,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="B4" s="16" t="s">
         <v>811</v>
       </c>
@@ -8918,67 +8927,67 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="B5" s="16"/>
       <c r="C5" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>454</v>
       </c>
@@ -8986,19 +8995,19 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" s="16" t="s">
         <v>329</v>
       </c>
@@ -9006,7 +9015,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="4" t="s">
         <v>531</v>
       </c>
@@ -9014,7 +9023,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="4" t="s">
         <v>537</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="16" t="s">
         <v>6</v>
       </c>
@@ -9030,7 +9039,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
@@ -9038,132 +9047,132 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="C24" s="22" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="C25" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="C26" s="16" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3">
       <c r="C27" s="4" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3">
       <c r="C28" s="16" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3">
       <c r="C29" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3">
       <c r="C30" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3">
       <c r="C31" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3">
       <c r="C32" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3">
       <c r="C34" s="22" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35" s="16" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:3">
       <c r="C37" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:3">
       <c r="C38" s="14" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:3">
       <c r="C39" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:3">
       <c r="C40" s="4" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:3">
       <c r="C41" s="4" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:3">
       <c r="C43" s="22" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:3">
       <c r="C44" s="16" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:3">
       <c r="C45" s="16" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:3">
       <c r="C46" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:3">
       <c r="C47" s="16" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:9">
       <c r="C49" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:9">
       <c r="C50" s="4" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:9">
       <c r="C51" s="4" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:9">
       <c r="C53" s="22" t="s">
         <v>665</v>
       </c>
@@ -9171,7 +9180,7 @@
       <c r="E53"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:9">
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
@@ -9180,7 +9189,7 @@
       </c>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:9">
       <c r="C55" s="4" t="s">
         <v>423</v>
       </c>
@@ -9189,7 +9198,7 @@
       </c>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:9">
       <c r="C56" s="4" t="s">
         <v>554</v>
       </c>
@@ -9198,179 +9207,179 @@
       </c>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:9">
       <c r="C57" s="16" t="s">
         <v>1073</v>
       </c>
       <c r="D57" s="4"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:9">
       <c r="D58" s="4"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:9">
       <c r="C59" s="22" t="s">
         <v>422</v>
       </c>
       <c r="D59" s="4"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:9">
       <c r="C60" s="16" t="s">
         <v>623</v>
       </c>
       <c r="D60" s="4"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:9">
       <c r="C61" s="14" t="s">
         <v>452</v>
       </c>
       <c r="D61" s="4"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:9">
       <c r="C63" s="22" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:9">
       <c r="C64" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:13">
       <c r="C66" s="22" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:13">
       <c r="C67" s="16" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:13">
       <c r="C68" s="16" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:13">
       <c r="C70" s="22" t="s">
         <v>1079</v>
       </c>
       <c r="M70" s="69"/>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:13">
       <c r="C71" s="16" t="s">
         <v>1054</v>
       </c>
       <c r="M71" s="69"/>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:13">
       <c r="C72" s="16" t="s">
         <v>1055</v>
       </c>
       <c r="M72" s="69"/>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:13">
       <c r="C73" s="14" t="s">
         <v>1089</v>
       </c>
       <c r="M73" s="69"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:13">
       <c r="C74" s="16" t="s">
         <v>1088</v>
       </c>
       <c r="M74" s="69"/>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:13">
       <c r="M75" s="69"/>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:13">
       <c r="C76" s="22" t="s">
         <v>625</v>
       </c>
       <c r="M76" s="69"/>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:13">
       <c r="C77" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:13">
       <c r="C79" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:13">
       <c r="C80" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3">
       <c r="C81" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:3">
       <c r="C83" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:3">
       <c r="C84" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:3">
       <c r="C85" s="4" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:3">
       <c r="C87" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:3">
       <c r="C88" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:3">
       <c r="C89" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:3">
       <c r="C91" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:3">
       <c r="C92" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:3">
       <c r="C95" s="22" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" s="16" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:4">
       <c r="C98" s="22" t="s">
         <v>334</v>
       </c>
       <c r="D98" s="22"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:4">
       <c r="C99" s="4" t="s">
         <v>338</v>
       </c>
@@ -9378,12 +9387,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:4">
       <c r="C101" s="22" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:4">
       <c r="C102" s="16" t="s">
         <v>1106</v>
       </c>
@@ -9405,19 +9414,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="B8" s="22" t="s">
         <v>736</v>
       </c>
@@ -9427,7 +9436,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="B9" s="4" t="s">
         <v>172</v>
       </c>
@@ -9437,7 +9446,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
@@ -9447,92 +9456,92 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="C19" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="C20" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>485</v>
       </c>
@@ -9553,19 +9562,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -9573,7 +9582,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -9581,7 +9590,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>811</v>
       </c>
@@ -9608,19 +9617,19 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -9628,7 +9637,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -9636,7 +9645,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>811</v>
       </c>
@@ -9644,17 +9653,17 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="4" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>454</v>
       </c>
@@ -9662,7 +9671,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>986</v>
       </c>
@@ -9670,86 +9679,86 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="22" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="22" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4">
       <c r="C17" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4">
       <c r="C18" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="C20" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:4">
       <c r="C21" s="16" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="C23" s="22" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:4">
       <c r="C24" s="16" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4">
       <c r="C26" s="28" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="4" t="s">
         <v>275</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:4">
       <c r="C28" s="4" t="s">
         <v>358</v>
       </c>
@@ -9765,7 +9774,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:4">
       <c r="C29" s="4" t="s">
         <v>325</v>
       </c>
@@ -9773,7 +9782,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:4">
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
@@ -9781,7 +9790,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:4">
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
@@ -9789,17 +9798,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:4">
       <c r="D32" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="D33" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4">
       <c r="C34" s="4" t="s">
         <v>1010</v>
       </c>
@@ -9807,121 +9816,121 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4">
       <c r="D35" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4">
       <c r="D36" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4">
       <c r="C38" s="22" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4">
       <c r="C39" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4">
       <c r="C41" s="22" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4">
       <c r="C42" s="16" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4">
       <c r="C43" s="14"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4">
       <c r="C44" s="16" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4">
       <c r="C45" s="16" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4">
       <c r="C46" s="16"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4">
       <c r="C47" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4">
       <c r="C48" s="14" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="C49" s="14"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="C50" s="4" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4">
       <c r="D51" s="4" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="C52" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4">
       <c r="C54" s="22" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4">
       <c r="C55" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4">
       <c r="C56" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:4">
       <c r="C57" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:4">
       <c r="C58" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:4">
       <c r="C59" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:4">
       <c r="C60" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:4">
       <c r="C61" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:4">
       <c r="C63" s="4" t="s">
         <v>462</v>
       </c>
@@ -9947,19 +9956,19 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -9967,12 +9976,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -9980,17 +9989,17 @@
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="4" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>670</v>
       </c>
@@ -9998,7 +10007,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>811</v>
       </c>
@@ -10006,17 +10015,17 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
         <v>986</v>
       </c>
@@ -10024,7 +10033,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
@@ -10032,142 +10041,142 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="22" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3">
       <c r="C18" s="22" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3">
       <c r="C19" s="4" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3">
       <c r="C21" s="22" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3">
       <c r="C22" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3">
       <c r="C24" s="22" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3">
       <c r="C25" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:3">
       <c r="C27" s="28" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:3">
       <c r="C28" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:3">
       <c r="C29" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:3">
       <c r="C30" s="4" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:3">
       <c r="C31" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:3">
       <c r="C32" s="16" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3">
       <c r="C33" s="16" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3">
       <c r="C34" s="4" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3">
       <c r="C36" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:3">
       <c r="C37" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:3">
       <c r="C39" s="22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:3">
       <c r="C40" s="4" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:3">
       <c r="C41" s="4" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:3">
       <c r="C42" s="4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:3">
       <c r="C44" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:3">
       <c r="C45" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:3">
       <c r="C46" s="4" t="s">
         <v>743</v>
       </c>
@@ -10190,14 +10199,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>972</v>
       </c>
@@ -10217,29 +10226,29 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="12" customHeight="1">
       <c r="A1" s="16"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10265,7 +10274,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" s="25" t="s">
         <v>357</v>
       </c>
@@ -10294,7 +10303,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" s="25" t="s">
         <v>210</v>
       </c>
@@ -10319,7 +10328,7 @@
         <v>175127.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="B5" s="25" t="s">
         <v>211</v>
       </c>
@@ -10347,7 +10356,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="B7" s="25" t="s">
         <v>390</v>
       </c>
@@ -10404,7 +10413,7 @@
         <v>228471.2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="B8" s="25" t="s">
         <v>1214</v>
       </c>
@@ -10419,7 +10428,7 @@
       </c>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="B9" s="25" t="s">
         <v>1086</v>
       </c>
@@ -10442,7 +10451,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="B10" s="112" t="s">
         <v>1290</v>
       </c>
@@ -10453,8 +10462,11 @@
         <v>41110</v>
       </c>
       <c r="G10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I10" s="113" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="112" t="s">
         <v>1291</v>
       </c>
@@ -10463,8 +10475,11 @@
       <c r="E11" s="52"/>
       <c r="F11" s="104"/>
       <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I11" s="113" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="112" t="s">
         <v>1292</v>
       </c>
@@ -10473,8 +10488,11 @@
       <c r="E12" s="52"/>
       <c r="F12" s="104"/>
       <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="113" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="112" t="s">
         <v>1293</v>
       </c>
@@ -10484,7 +10502,7 @@
       <c r="F13" s="104"/>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="B14" s="112" t="s">
         <v>1294</v>
       </c>
@@ -10494,7 +10512,7 @@
       <c r="F14" s="104"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" s="112" t="s">
         <v>1295</v>
       </c>
@@ -10506,7 +10524,7 @@
       </c>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" s="112" t="s">
         <v>1306</v>
       </c>
@@ -10522,7 +10540,7 @@
       <c r="F16" s="104"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="110" t="s">
         <v>1234</v>
       </c>
@@ -10538,7 +10556,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="94"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="110" t="s">
         <v>1235</v>
       </c>
@@ -10556,7 +10574,7 @@
       </c>
       <c r="G18" s="94"/>
     </row>
-    <row r="19" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" s="16" customFormat="1">
       <c r="B19" s="105" t="s">
         <v>853</v>
       </c>
@@ -10576,7 +10594,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" s="16" customFormat="1">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10588,7 +10606,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="68" t="s">
         <v>1146</v>
       </c>
@@ -10604,7 +10622,7 @@
       </c>
       <c r="G21" s="94"/>
     </row>
-    <row r="22" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" s="16" customFormat="1">
       <c r="B22" s="68" t="s">
         <v>1164</v>
       </c>
@@ -10620,7 +10638,7 @@
       </c>
       <c r="G22" s="94"/>
     </row>
-    <row r="23" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" s="16" customFormat="1">
       <c r="B23" s="25" t="s">
         <v>219</v>
       </c>
@@ -10638,7 +10656,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="2:7" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" s="16" customFormat="1">
       <c r="B24" s="25" t="s">
         <v>216</v>
       </c>
@@ -10656,7 +10674,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
@@ -10676,7 +10694,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="68" t="s">
         <v>1148</v>
       </c>
@@ -10694,7 +10712,7 @@
       </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="5" t="s">
         <v>352</v>
       </c>
@@ -10714,7 +10732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="25" t="s">
         <v>31</v>
       </c>
@@ -10732,7 +10750,7 @@
       </c>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="64" t="s">
         <v>217</v>
       </c>
@@ -10750,7 +10768,7 @@
       </c>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="5" t="s">
         <v>125</v>
       </c>
@@ -10768,7 +10786,7 @@
       </c>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" s="23" customFormat="1">
       <c r="B31" s="5" t="s">
         <v>67</v>
       </c>
@@ -10784,7 +10802,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
         <v>67</v>
       </c>
@@ -10799,7 +10817,7 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="25" t="s">
         <v>786</v>
       </c>
@@ -10819,7 +10837,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="5" t="s">
         <v>789</v>
       </c>
@@ -10837,7 +10855,7 @@
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="5" t="s">
         <v>131</v>
       </c>
@@ -10852,7 +10870,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="5" t="s">
         <v>538</v>
       </c>
@@ -10864,7 +10882,7 @@
       </c>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="5" t="s">
         <v>65</v>
       </c>
@@ -10881,7 +10899,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="25" t="s">
         <v>108</v>
       </c>
@@ -10899,7 +10917,7 @@
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="8" t="s">
         <v>51</v>
       </c>
@@ -10917,117 +10935,117 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="14"/>
       <c r="E41" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="16"/>
       <c r="E42" s="33" t="s">
         <v>471</v>
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="16"/>
       <c r="E43" s="23" t="s">
         <v>517</v>
       </c>
       <c r="F43" s="33"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="E44" s="23" t="s">
         <v>318</v>
       </c>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="16"/>
       <c r="E45" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="E46" s="33" t="s">
         <v>518</v>
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="14"/>
       <c r="E47" s="23" t="s">
         <v>824</v>
       </c>
       <c r="F47" s="33"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7">
       <c r="B48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>333</v>
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6">
       <c r="E49" s="4" t="s">
         <v>888</v>
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6">
       <c r="E50" s="23" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6">
       <c r="E51" s="4" t="s">
         <v>996</v>
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6">
       <c r="E52" s="23" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6">
       <c r="E53" s="23" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6">
       <c r="E54" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6">
       <c r="E55" s="23" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6">
       <c r="E56" s="23" t="s">
         <v>561</v>
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6">
       <c r="E57" s="33" t="s">
         <v>891</v>
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6">
       <c r="E58" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6">
       <c r="B59" s="4" t="s">
         <v>418</v>
       </c>
@@ -11036,122 +11054,122 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6">
       <c r="E60" s="23" t="s">
         <v>892</v>
       </c>
       <c r="F60" s="33"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6">
       <c r="E61" s="23" t="s">
         <v>484</v>
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6">
       <c r="E62" s="23" t="s">
         <v>483</v>
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6">
       <c r="E63" s="23" t="s">
         <v>730</v>
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:6">
       <c r="E64" s="23" t="s">
         <v>620</v>
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="5:5">
       <c r="E65" s="23" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5">
       <c r="E66" s="23" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:5">
       <c r="E67" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:5">
       <c r="E68" s="23" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="5:5">
       <c r="E69" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:5">
       <c r="E70" s="4" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:5">
       <c r="E71" s="23" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:5">
       <c r="E72" s="23" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:5">
       <c r="E73" s="23" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="5:5">
       <c r="E74" s="23" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="5:5">
       <c r="E75" s="23" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="5:5">
       <c r="E76" s="23" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:5">
       <c r="E77" s="16" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:5">
       <c r="E78" s="16" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:5">
       <c r="E80" s="4" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:5">
       <c r="E81" s="4" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:5">
       <c r="E82" s="4" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:5">
       <c r="E83" s="113" t="s">
         <v>1320</v>
       </c>
@@ -11185,32 +11203,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>436</v>
       </c>
@@ -11231,18 +11249,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11250,17 +11268,17 @@
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>857</v>
       </c>
@@ -11281,18 +11299,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11300,7 +11318,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>811</v>
       </c>
@@ -11308,28 +11326,28 @@
         <v>926</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="53" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="C7" s="53"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="53"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>927</v>
       </c>
@@ -11350,18 +11368,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11369,12 +11387,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>811</v>
       </c>
@@ -11382,37 +11400,37 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="C8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="C9" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -11420,102 +11438,102 @@
         <v>759</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="D14" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="D16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="C17" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="C18" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="C19" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="D20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="C21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="C23" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="C24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="C25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="C26" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="C27" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4">
       <c r="C29" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4">
       <c r="C30" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="C32" s="48" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35" s="48" t="s">
         <v>1109</v>
       </c>
@@ -11537,19 +11555,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -11557,12 +11575,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>811</v>
       </c>
@@ -11570,7 +11588,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>323</v>
       </c>
@@ -11578,12 +11596,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="22" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="4" t="s">
         <v>536</v>
       </c>
@@ -11604,18 +11622,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11623,7 +11641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="53" t="s">
         <v>811</v>
       </c>
@@ -11631,7 +11649,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="53" t="s">
         <v>1110</v>
       </c>
@@ -11639,38 +11657,38 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="53" t="s">
         <v>323</v>
       </c>
       <c r="C5" s="48"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="53"/>
       <c r="C6" s="48" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="53"/>
       <c r="C8" s="48"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="53"/>
       <c r="C9" s="48"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="53" t="s">
         <v>1062</v>
       </c>
@@ -11689,18 +11707,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11708,17 +11726,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="C4" s="48" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>693</v>
       </c>
@@ -11739,18 +11757,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11758,7 +11776,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>811</v>
       </c>
@@ -11766,12 +11784,12 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>931</v>
       </c>
@@ -11794,18 +11812,18 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11813,7 +11831,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>811</v>
       </c>
@@ -11821,12 +11839,12 @@
         <v>924</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>925</v>
       </c>
@@ -11847,18 +11865,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -11866,7 +11884,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>811</v>
       </c>
@@ -11874,7 +11892,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>329</v>
       </c>
@@ -11882,7 +11900,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>323</v>
       </c>
@@ -11914,37 +11932,37 @@
       <selection pane="bottomRight" activeCell="CR88" sqref="CR88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="7.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="29" max="38" width="7.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="40" max="103" width="7.33203125" style="71" customWidth="1"/>
-    <col min="104" max="104" width="9.1640625" style="71"/>
-    <col min="105" max="122" width="7.33203125" style="71" customWidth="1"/>
-    <col min="123" max="135" width="8.5" style="71" customWidth="1"/>
-    <col min="136" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="29" max="38" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="40" max="103" width="7.28515625" style="71" customWidth="1"/>
+    <col min="104" max="104" width="9.140625" style="71"/>
+    <col min="105" max="122" width="7.28515625" style="71" customWidth="1"/>
+    <col min="123" max="135" width="8.42578125" style="71" customWidth="1"/>
+    <col min="136" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:140">
       <c r="A1" s="60" t="s">
         <v>5</v>
       </c>
       <c r="CM1" s="114"/>
     </row>
-    <row r="2" spans="1:140" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:140">
       <c r="C2" s="71" t="s">
         <v>479</v>
       </c>
@@ -12363,7 +12381,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:140" s="26" customFormat="1">
       <c r="B3" s="26" t="s">
         <v>602</v>
       </c>
@@ -12774,7 +12792,7 @@
         <v>63.829075244706011</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:140" s="26" customFormat="1">
       <c r="B4" s="26" t="s">
         <v>601</v>
       </c>
@@ -13215,7 +13233,7 @@
         <v>384.66902868712214</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="97" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:140" s="97" customFormat="1">
       <c r="B5" s="97" t="s">
         <v>419</v>
       </c>
@@ -13566,7 +13584,7 @@
       <c r="ED5" s="73"/>
       <c r="EE5" s="73"/>
     </row>
-    <row r="6" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:140" s="26" customFormat="1">
       <c r="B6" s="26" t="s">
         <v>603</v>
       </c>
@@ -13980,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:140" s="26" customFormat="1">
       <c r="B7" s="26" t="s">
         <v>354</v>
       </c>
@@ -14410,7 +14428,7 @@
         <v>239.50024693588807</v>
       </c>
     </row>
-    <row r="8" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:140" s="26" customFormat="1">
       <c r="B8" s="26" t="s">
         <v>355</v>
       </c>
@@ -14839,7 +14857,7 @@
         <v>1044.1419963702574</v>
       </c>
     </row>
-    <row r="9" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:140" s="26" customFormat="1">
       <c r="B9" s="97" t="s">
         <v>1236</v>
       </c>
@@ -15072,7 +15090,7 @@
         <v>2775.6815766839586</v>
       </c>
     </row>
-    <row r="10" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:140" s="26" customFormat="1">
       <c r="B10" s="97" t="s">
         <v>1239</v>
       </c>
@@ -15305,7 +15323,7 @@
         <v>1014.1425271187729</v>
       </c>
     </row>
-    <row r="11" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:140" s="26" customFormat="1">
       <c r="B11" s="97" t="s">
         <v>1242</v>
       </c>
@@ -15505,7 +15523,7 @@
         <v>68.719476736000033</v>
       </c>
     </row>
-    <row r="12" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:140" s="26" customFormat="1">
       <c r="B12" s="97" t="s">
         <v>1245</v>
       </c>
@@ -15665,7 +15683,7 @@
       <c r="ED12" s="67"/>
       <c r="EE12" s="67"/>
     </row>
-    <row r="13" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:140" s="26" customFormat="1">
       <c r="B13" s="97" t="s">
         <v>1248</v>
       </c>
@@ -15861,7 +15879,7 @@
       <c r="ED13" s="67"/>
       <c r="EE13" s="67"/>
     </row>
-    <row r="14" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:140" s="26" customFormat="1">
       <c r="B14" s="97" t="s">
         <v>1251</v>
       </c>
@@ -16021,7 +16039,7 @@
       <c r="ED14" s="67"/>
       <c r="EE14" s="67"/>
     </row>
-    <row r="15" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:140" s="26" customFormat="1">
       <c r="B15" s="26" t="s">
         <v>97</v>
       </c>
@@ -16266,7 +16284,7 @@
       <c r="ED15" s="67"/>
       <c r="EE15" s="67"/>
     </row>
-    <row r="16" spans="1:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:140" s="26" customFormat="1">
       <c r="B16" s="26" t="s">
         <v>356</v>
       </c>
@@ -16637,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:141" s="26" customFormat="1">
       <c r="B17" s="26" t="s">
         <v>1207</v>
       </c>
@@ -16895,7 +16913,7 @@
         <v>102.23949220612204</v>
       </c>
     </row>
-    <row r="18" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:141" s="26" customFormat="1">
       <c r="B18" s="26" t="s">
         <v>889</v>
       </c>
@@ -17253,7 +17271,7 @@
         <v>1108.795829649858</v>
       </c>
     </row>
-    <row r="19" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:141" s="26" customFormat="1">
       <c r="B19" s="26" t="s">
         <v>1114</v>
       </c>
@@ -17551,7 +17569,7 @@
         <v>112.05123325000005</v>
       </c>
     </row>
-    <row r="20" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:141" s="26" customFormat="1">
       <c r="B20" s="98" t="s">
         <v>1123</v>
       </c>
@@ -17856,7 +17874,7 @@
         <v>31.068844930232995</v>
       </c>
     </row>
-    <row r="21" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:141" s="26" customFormat="1">
       <c r="B21" s="98" t="s">
         <v>1201</v>
       </c>
@@ -18115,7 +18133,7 @@
       </c>
       <c r="EK21" s="67"/>
     </row>
-    <row r="22" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:141" s="26" customFormat="1">
       <c r="B22" s="98" t="s">
         <v>1197</v>
       </c>
@@ -18373,7 +18391,7 @@
         <v>260.70081222772137</v>
       </c>
     </row>
-    <row r="23" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:141" s="26" customFormat="1">
       <c r="B23" s="98" t="s">
         <v>1198</v>
       </c>
@@ -18631,7 +18649,7 @@
         <v>367.45329999338315</v>
       </c>
     </row>
-    <row r="24" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:141" s="26" customFormat="1">
       <c r="B24" s="98" t="s">
         <v>1199</v>
       </c>
@@ -18863,7 +18881,7 @@
         <v>193.81390518269882</v>
       </c>
     </row>
-    <row r="25" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:141" s="26" customFormat="1">
       <c r="B25" s="98" t="s">
         <v>1200</v>
       </c>
@@ -19121,7 +19139,7 @@
         <v>3213.2763515385486</v>
       </c>
     </row>
-    <row r="26" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:141" s="26" customFormat="1">
       <c r="B26" s="98" t="s">
         <v>1202</v>
       </c>
@@ -19379,7 +19397,7 @@
         <v>176.80088983710604</v>
       </c>
     </row>
-    <row r="27" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:141" s="26" customFormat="1">
       <c r="B27" s="98" t="s">
         <v>1203</v>
       </c>
@@ -19637,7 +19655,7 @@
         <v>340.99685011443876</v>
       </c>
     </row>
-    <row r="28" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:141" s="26" customFormat="1">
       <c r="B28" s="98" t="s">
         <v>1163</v>
       </c>
@@ -19899,7 +19917,7 @@
         <v>1.6578417968750003</v>
       </c>
     </row>
-    <row r="29" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:141" s="26" customFormat="1">
       <c r="B29" s="26" t="s">
         <v>791</v>
       </c>
@@ -20220,7 +20238,7 @@
         <v>1656.6060701528916</v>
       </c>
     </row>
-    <row r="30" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:141" s="26" customFormat="1">
       <c r="B30" s="98" t="s">
         <v>1204</v>
       </c>
@@ -20478,7 +20496,7 @@
         <v>1546.2322967050538</v>
       </c>
     </row>
-    <row r="31" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:141" s="26" customFormat="1">
       <c r="B31" s="98" t="s">
         <v>1205</v>
       </c>
@@ -20736,7 +20754,7 @@
         <v>225.9436291848001</v>
       </c>
     </row>
-    <row r="32" spans="2:141" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:141" s="26" customFormat="1">
       <c r="B32" s="97" t="s">
         <v>1305</v>
       </c>
@@ -20901,7 +20919,7 @@
       <c r="EI32" s="67"/>
       <c r="EJ32" s="67"/>
     </row>
-    <row r="33" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:140" s="26" customFormat="1">
       <c r="B33" s="98" t="s">
         <v>1206</v>
       </c>
@@ -21133,7 +21151,7 @@
         <v>17.510631261822013</v>
       </c>
     </row>
-    <row r="34" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:140" s="26" customFormat="1">
       <c r="B34" s="97" t="s">
         <v>1309</v>
       </c>
@@ -21306,7 +21324,7 @@
       <c r="EI34" s="67"/>
       <c r="EJ34" s="67"/>
     </row>
-    <row r="35" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:140" s="26" customFormat="1">
       <c r="B35" s="26" t="s">
         <v>451</v>
       </c>
@@ -21568,7 +21586,7 @@
         <v>270.28506641231712</v>
       </c>
     </row>
-    <row r="36" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:140" s="26" customFormat="1">
       <c r="B36" s="97" t="s">
         <v>1233</v>
       </c>
@@ -21786,7 +21804,7 @@
         <v>73.09282762989541</v>
       </c>
     </row>
-    <row r="37" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:140" s="26" customFormat="1">
       <c r="B37" s="26" t="s">
         <v>98</v>
       </c>
@@ -22199,7 +22217,7 @@
         <v>15289.233629218439</v>
       </c>
     </row>
-    <row r="38" spans="2:140" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:140" s="26" customFormat="1">
       <c r="B38" s="26" t="s">
         <v>451</v>
       </c>
@@ -22584,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:140" s="15" customFormat="1">
       <c r="B39" s="32" t="s">
         <v>445</v>
       </c>
@@ -23069,7 +23087,7 @@
         <v>15289.233629218439</v>
       </c>
     </row>
-    <row r="40" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:140" s="15" customFormat="1">
       <c r="B40" s="15" t="s">
         <v>99</v>
       </c>
@@ -23398,7 +23416,7 @@
       <c r="ED40" s="72"/>
       <c r="EE40" s="72"/>
     </row>
-    <row r="41" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:140" s="15" customFormat="1">
       <c r="B41" s="15" t="s">
         <v>100</v>
       </c>
@@ -23841,7 +23859,7 @@
         <v>12995.848584835672</v>
       </c>
     </row>
-    <row r="42" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:140" s="15" customFormat="1">
       <c r="B42" s="15" t="s">
         <v>446</v>
       </c>
@@ -24151,7 +24169,7 @@
       <c r="ED42" s="72"/>
       <c r="EE42" s="72"/>
     </row>
-    <row r="43" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:140" s="15" customFormat="1">
       <c r="B43" s="15" t="s">
         <v>447</v>
       </c>
@@ -24535,7 +24553,7 @@
         <v>2705.3127788829906</v>
       </c>
     </row>
-    <row r="44" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:140" s="15" customFormat="1">
       <c r="B44" s="15" t="s">
         <v>634</v>
       </c>
@@ -24984,7 +25002,7 @@
         <v>2705.3127788829906</v>
       </c>
     </row>
-    <row r="45" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:140" s="15" customFormat="1">
       <c r="B45" s="15" t="s">
         <v>706</v>
       </c>
@@ -25433,7 +25451,7 @@
         <v>10290.535805952681</v>
       </c>
     </row>
-    <row r="46" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:140" s="15" customFormat="1">
       <c r="B46" s="15" t="s">
         <v>451</v>
       </c>
@@ -25807,7 +25825,7 @@
         <v>1473.642454765527</v>
       </c>
     </row>
-    <row r="47" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:140" s="15" customFormat="1">
       <c r="B47" s="15" t="s">
         <v>102</v>
       </c>
@@ -26247,7 +26265,7 @@
         <v>11764.178260718207</v>
       </c>
     </row>
-    <row r="48" spans="2:140" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:140" s="15" customFormat="1">
       <c r="B48" s="15" t="s">
         <v>103</v>
       </c>
@@ -26622,7 +26640,7 @@
         <v>2352.8356521436413</v>
       </c>
     </row>
-    <row r="49" spans="2:210" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:210" s="15" customFormat="1">
       <c r="B49" s="37" t="s">
         <v>1096</v>
       </c>
@@ -27340,7 +27358,7 @@
         <v>2288.1099103555825</v>
       </c>
     </row>
-    <row r="50" spans="2:210" s="61" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:210" s="61" customFormat="1">
       <c r="B50" s="91" t="s">
         <v>450</v>
       </c>
@@ -27780,7 +27798,7 @@
         <v>17.460746954683795</v>
       </c>
     </row>
-    <row r="51" spans="2:210" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:210" s="26" customFormat="1">
       <c r="B51" s="26" t="s">
         <v>449</v>
       </c>
@@ -28151,7 +28169,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="2:210" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:210">
       <c r="DB52" s="70"/>
       <c r="DC52" s="70"/>
       <c r="DD52" s="70"/>
@@ -28174,7 +28192,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="2:210" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:210" s="19" customFormat="1">
       <c r="B53" s="38" t="s">
         <v>101</v>
       </c>
@@ -28533,7 +28551,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="54" spans="2:210" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:210" s="30" customFormat="1">
       <c r="B54" s="30" t="s">
         <v>283</v>
       </c>
@@ -28891,7 +28909,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="2:210" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:210" s="30" customFormat="1">
       <c r="B55" s="30" t="s">
         <v>284</v>
       </c>
@@ -29241,7 +29259,7 @@
         <v>124527.65215182173</v>
       </c>
     </row>
-    <row r="56" spans="2:210" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:210" s="30" customFormat="1">
       <c r="B56" s="30" t="s">
         <v>979</v>
       </c>
@@ -29608,7 +29626,7 @@
         <v>231.80873445983195</v>
       </c>
     </row>
-    <row r="57" spans="2:210" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:210" s="30" customFormat="1">
       <c r="B57" s="30" t="s">
         <v>980</v>
       </c>
@@ -29972,7 +29990,7 @@
       <c r="EE57" s="86"/>
       <c r="EF57" s="82"/>
     </row>
-    <row r="58" spans="2:210" s="38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:210" s="38" customFormat="1">
       <c r="B58" s="38" t="s">
         <v>448</v>
       </c>
@@ -30334,7 +30352,7 @@
       <c r="EE58" s="79"/>
       <c r="EF58" s="79"/>
     </row>
-    <row r="59" spans="2:210" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:210" s="30" customFormat="1">
       <c r="C59" s="82"/>
       <c r="D59" s="82"/>
       <c r="E59" s="82"/>
@@ -30469,7 +30487,7 @@
       <c r="ED59" s="82"/>
       <c r="EE59" s="82"/>
     </row>
-    <row r="60" spans="2:210" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:210" s="31" customFormat="1">
       <c r="B60" s="35" t="s">
         <v>282</v>
       </c>
@@ -30838,7 +30856,7 @@
       <c r="ED60" s="85"/>
       <c r="EE60" s="85"/>
     </row>
-    <row r="61" spans="2:210" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:210" s="15" customFormat="1">
       <c r="B61" s="30" t="s">
         <v>178</v>
       </c>
@@ -31147,7 +31165,7 @@
       <c r="ED61" s="72"/>
       <c r="EE61" s="72"/>
     </row>
-    <row r="62" spans="2:210" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:210" s="37" customFormat="1">
       <c r="B62" s="30" t="s">
         <v>177</v>
       </c>
@@ -31441,7 +31459,7 @@
       <c r="ED62" s="99"/>
       <c r="EE62" s="99"/>
     </row>
-    <row r="63" spans="2:210" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:210" s="15" customFormat="1">
       <c r="B63" s="30" t="s">
         <v>176</v>
       </c>
@@ -31743,7 +31761,7 @@
       <c r="ED63" s="72"/>
       <c r="EE63" s="72"/>
     </row>
-    <row r="64" spans="2:210" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:210" s="15" customFormat="1">
       <c r="B64" s="30" t="s">
         <v>440</v>
       </c>
@@ -32016,7 +32034,7 @@
       <c r="ED64" s="72"/>
       <c r="EE64" s="72"/>
     </row>
-    <row r="65" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:135" s="15" customFormat="1">
       <c r="B65" s="30" t="s">
         <v>723</v>
       </c>
@@ -32298,7 +32316,7 @@
       <c r="ED65" s="72"/>
       <c r="EE65" s="72"/>
     </row>
-    <row r="66" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:135" s="15" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>725</v>
       </c>
@@ -32568,7 +32586,7 @@
       </c>
       <c r="EE66" s="72"/>
     </row>
-    <row r="67" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:135" s="15" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>1124</v>
       </c>
@@ -32760,7 +32778,7 @@
       </c>
       <c r="EE67" s="72"/>
     </row>
-    <row r="68" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:135" s="15" customFormat="1">
       <c r="B68" s="30" t="s">
         <v>949</v>
       </c>
@@ -32913,7 +32931,7 @@
       </c>
       <c r="EE68" s="72"/>
     </row>
-    <row r="69" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:135" s="15" customFormat="1">
       <c r="B69" s="30" t="s">
         <v>1132</v>
       </c>
@@ -33092,7 +33110,7 @@
       </c>
       <c r="EE69" s="72"/>
     </row>
-    <row r="70" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:135" s="15" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>27</v>
       </c>
@@ -33336,7 +33354,7 @@
       </c>
       <c r="EE70" s="72"/>
     </row>
-    <row r="71" spans="2:135" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:135" s="15" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>285</v>
       </c>
@@ -33606,7 +33624,7 @@
       <c r="ED71" s="72"/>
       <c r="EE71" s="72"/>
     </row>
-    <row r="72" spans="2:135" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:135" s="30" customFormat="1">
       <c r="B72" s="30" t="s">
         <v>724</v>
       </c>
@@ -33876,7 +33894,7 @@
       <c r="ED72" s="82"/>
       <c r="EE72" s="82"/>
     </row>
-    <row r="73" spans="2:135" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:135" s="31" customFormat="1">
       <c r="B73" s="35" t="s">
         <v>315</v>
       </c>
@@ -34149,7 +34167,7 @@
       <c r="ED73" s="85"/>
       <c r="EE73" s="85"/>
     </row>
-    <row r="75" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:135">
       <c r="B75" s="4" t="s">
         <v>458</v>
       </c>
@@ -34157,7 +34175,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="76" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:135">
       <c r="B76" s="4" t="s">
         <v>459</v>
       </c>
@@ -34165,7 +34183,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="77" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:135">
       <c r="B77" s="4" t="s">
         <v>460</v>
       </c>
@@ -34173,7 +34191,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="78" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:135">
       <c r="B78" s="4" t="s">
         <v>461</v>
       </c>
@@ -34181,7 +34199,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:135">
       <c r="B79" s="4" t="s">
         <v>771</v>
       </c>
@@ -34189,7 +34207,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="80" spans="2:135" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:135">
       <c r="B80" s="4" t="s">
         <v>472</v>
       </c>
@@ -34200,7 +34218,7 @@
         <v>3740.5</v>
       </c>
     </row>
-    <row r="81" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:140">
       <c r="B81" s="4" t="s">
         <v>473</v>
       </c>
@@ -34208,7 +34226,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="82" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:140">
       <c r="B82" s="4" t="s">
         <v>606</v>
       </c>
@@ -34216,7 +34234,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="83" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:140">
       <c r="B83" s="4" t="s">
         <v>607</v>
       </c>
@@ -34224,7 +34242,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:140">
       <c r="B84" s="4" t="s">
         <v>608</v>
       </c>
@@ -34232,7 +34250,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="85" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:140">
       <c r="B85" s="4" t="s">
         <v>1046</v>
       </c>
@@ -34240,7 +34258,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="86" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:140">
       <c r="B86" s="4" t="s">
         <v>1047</v>
       </c>
@@ -34248,7 +34266,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="88" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:140">
       <c r="B88" s="4" t="s">
         <v>380</v>
       </c>
@@ -34510,7 +34528,7 @@
         <v>156775.58808512727</v>
       </c>
     </row>
-    <row r="89" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:140">
       <c r="B89" s="4" t="s">
         <v>62</v>
       </c>
@@ -34589,7 +34607,7 @@
         <v>9301</v>
       </c>
     </row>
-    <row r="90" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:140">
       <c r="B90" s="4" t="s">
         <v>63</v>
       </c>
@@ -34651,7 +34669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:140">
       <c r="B91" s="4" t="s">
         <v>64</v>
       </c>
@@ -34725,7 +34743,7 @@
         <v>6934</v>
       </c>
     </row>
-    <row r="92" spans="2:140" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:140" s="14" customFormat="1">
       <c r="B92" s="14" t="s">
         <v>371</v>
       </c>
@@ -34926,7 +34944,7 @@
       <c r="ED92" s="89"/>
       <c r="EE92" s="89"/>
     </row>
-    <row r="93" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:140">
       <c r="B93" s="4" t="s">
         <v>364</v>
       </c>
@@ -35000,7 +35018,7 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="94" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:140">
       <c r="B94" s="4" t="s">
         <v>365</v>
       </c>
@@ -35074,7 +35092,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="95" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:140">
       <c r="B95" s="4" t="s">
         <v>366</v>
       </c>
@@ -35165,7 +35183,7 @@
       <c r="CQ95" s="67"/>
       <c r="CR95" s="67"/>
     </row>
-    <row r="96" spans="2:140" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:140">
       <c r="B96" s="4" t="s">
         <v>367</v>
       </c>
@@ -35239,7 +35257,7 @@
         <v>6097</v>
       </c>
     </row>
-    <row r="97" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:96">
       <c r="B97" s="4" t="s">
         <v>368</v>
       </c>
@@ -35336,7 +35354,7 @@
         <v>48788</v>
       </c>
     </row>
-    <row r="98" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:96">
       <c r="B98" s="4" t="s">
         <v>369</v>
       </c>
@@ -35410,7 +35428,7 @@
         <v>8816</v>
       </c>
     </row>
-    <row r="99" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:96">
       <c r="B99" s="4" t="s">
         <v>370</v>
       </c>
@@ -35507,12 +35525,12 @@
         <v>90907</v>
       </c>
     </row>
-    <row r="100" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:96">
       <c r="AM100" s="67"/>
       <c r="CQ100" s="67"/>
       <c r="CR100" s="67"/>
     </row>
-    <row r="101" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:96">
       <c r="B101" s="4" t="s">
         <v>372</v>
       </c>
@@ -35578,7 +35596,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="102" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:96">
       <c r="B102" s="4" t="s">
         <v>373</v>
       </c>
@@ -35652,7 +35670,7 @@
         <v>13722</v>
       </c>
     </row>
-    <row r="103" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:96">
       <c r="B103" s="4" t="s">
         <v>374</v>
       </c>
@@ -35724,7 +35742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:96">
       <c r="B104" s="4" t="s">
         <v>375</v>
       </c>
@@ -35819,7 +35837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:96">
       <c r="B105" s="4" t="s">
         <v>376</v>
       </c>
@@ -35889,7 +35907,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="106" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:96">
       <c r="B106" s="4" t="s">
         <v>374</v>
       </c>
@@ -35950,7 +35968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:96">
       <c r="B107" s="4" t="s">
         <v>377</v>
       </c>
@@ -36025,7 +36043,7 @@
         <v>62645</v>
       </c>
     </row>
-    <row r="108" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:96">
       <c r="B108" s="4" t="s">
         <v>378</v>
       </c>
@@ -36083,7 +36101,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="109" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:96">
       <c r="B109" s="4" t="s">
         <v>379</v>
       </c>
@@ -36174,7 +36192,7 @@
       <c r="CQ109" s="67"/>
       <c r="CR109" s="67"/>
     </row>
-    <row r="110" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:96">
       <c r="B110" s="4" t="s">
         <v>381</v>
       </c>
@@ -36248,7 +36266,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="111" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:96">
       <c r="B111" s="16" t="s">
         <v>1097</v>
       </c>
@@ -36345,11 +36363,11 @@
         <v>90907</v>
       </c>
     </row>
-    <row r="112" spans="2:96" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:96">
       <c r="X112" s="67"/>
       <c r="Y112" s="67"/>
     </row>
-    <row r="113" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:110">
       <c r="B113" s="4" t="s">
         <v>382</v>
       </c>
@@ -36440,7 +36458,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="114" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:110">
       <c r="B114" s="4" t="s">
         <v>383</v>
       </c>
@@ -36541,7 +36559,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="115" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:110">
       <c r="B115" s="16" t="s">
         <v>1098</v>
       </c>
@@ -36572,12 +36590,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:110">
       <c r="AM116" s="71">
         <v>-94</v>
       </c>
     </row>
-    <row r="117" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:110">
       <c r="B117" s="4" t="s">
         <v>384</v>
       </c>
@@ -36594,7 +36612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:110">
       <c r="B119" s="4" t="s">
         <v>385</v>
       </c>
@@ -36611,7 +36629,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="120" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:110">
       <c r="B120" s="4" t="s">
         <v>386</v>
       </c>
@@ -36628,7 +36646,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="121" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:110">
       <c r="B121" s="4" t="s">
         <v>387</v>
       </c>
@@ -36645,7 +36663,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="122" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:110">
       <c r="B122" s="4" t="s">
         <v>389</v>
       </c>
@@ -36660,12 +36678,12 @@
         <v>3794</v>
       </c>
     </row>
-    <row r="123" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:110">
       <c r="DD123" s="67"/>
       <c r="DE123" s="67"/>
       <c r="DF123" s="67"/>
     </row>
-    <row r="125" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:110">
       <c r="B125" s="4" t="s">
         <v>388</v>
       </c>
@@ -36682,7 +36700,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="126" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:110">
       <c r="B126" s="4" t="s">
         <v>446</v>
       </c>
@@ -36699,7 +36717,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="127" spans="2:110" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:110">
       <c r="B127" s="4" t="s">
         <v>447</v>
       </c>
@@ -36716,7 +36734,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:27">
       <c r="B129" s="4" t="s">
         <v>525</v>
       </c>
@@ -36789,7 +36807,7 @@
         <v>0.84838622186059132</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:27">
       <c r="B130" s="14" t="s">
         <v>1011</v>
       </c>
@@ -36862,7 +36880,7 @@
         <v>0.85791971792785471</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:27">
       <c r="B131" s="4" t="s">
         <v>1012</v>
       </c>
@@ -36935,7 +36953,7 @@
         <v>0.44616219148359099</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:27">
       <c r="B132" s="4" t="s">
         <v>1013</v>
       </c>
@@ -36999,7 +37017,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:27">
       <c r="B133" s="4" t="s">
         <v>182</v>
       </c>
@@ -37072,7 +37090,7 @@
         <v>0.40154597233523187</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:27">
       <c r="B134" s="4" t="s">
         <v>180</v>
       </c>
@@ -37145,7 +37163,7 @@
         <v>0.27610523460808245</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:27">
       <c r="B135" s="4" t="s">
         <v>181</v>
       </c>
@@ -37201,7 +37219,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:27">
       <c r="B136" s="4" t="s">
         <v>183</v>
       </c>
@@ -37274,7 +37292,7 @@
         <v>0.2484947111472742</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:27">
       <c r="B137" s="4" t="s">
         <v>646</v>
       </c>
@@ -37347,7 +37365,7 @@
         <v>0.19799294819636562</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:27">
       <c r="B138" s="4" t="s">
         <v>647</v>
       </c>
@@ -37412,7 +37430,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:27">
       <c r="B139" s="4" t="s">
         <v>648</v>
       </c>
@@ -37485,7 +37503,7 @@
         <v>0.16334418226200162</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:27">
       <c r="B140" s="4" t="s">
         <v>652</v>
       </c>
@@ -37558,7 +37576,7 @@
         <v>4.6650393273664228E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:27">
       <c r="B141" s="4" t="s">
         <v>653</v>
       </c>
@@ -37614,7 +37632,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:27">
       <c r="B142" s="4" t="s">
         <v>654</v>
       </c>
@@ -37687,7 +37705,7 @@
         <v>2.7990235964198536E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:27">
       <c r="B143" s="4" t="s">
         <v>651</v>
       </c>
@@ -37760,7 +37778,7 @@
         <v>3.3089232438296722E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:27">
       <c r="B144" s="4" t="s">
         <v>747</v>
       </c>
@@ -37816,7 +37834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:27">
       <c r="B145" s="4" t="s">
         <v>649</v>
       </c>
@@ -37889,7 +37907,7 @@
         <v>1.6544616219148361E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:27">
       <c r="D158" s="90">
         <f>EM55/Main!J3</f>
         <v>231.80873445983195</v>
@@ -37917,29 +37935,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="4" customFormat="1">
       <c r="C7" s="5" t="s">
         <v>220</v>
       </c>
@@ -37961,7 +37979,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="4" customFormat="1">
       <c r="C8" s="5" t="s">
         <v>220</v>
       </c>
@@ -37978,7 +37996,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>65</v>
       </c>
@@ -37989,27 +38007,27 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>1043</v>
       </c>
@@ -38030,25 +38048,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="10"/>
       <c r="B2" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>287</v>
       </c>
@@ -38056,7 +38074,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>288</v>
       </c>
@@ -38064,7 +38082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -38072,12 +38090,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>811</v>
       </c>
@@ -38085,7 +38103,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>444</v>
       </c>
@@ -38093,17 +38111,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="4" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" s="4" t="s">
         <v>456</v>
       </c>
@@ -38111,37 +38129,37 @@
         <v>914</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="4" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="4" t="s">
         <v>417</v>
       </c>
@@ -38162,18 +38180,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="100" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>287</v>
       </c>
@@ -38181,7 +38199,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>288</v>
       </c>
@@ -38189,7 +38207,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>811</v>
       </c>
@@ -38197,47 +38215,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>323</v>
       </c>
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="C6" s="48" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="C7" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="C9" s="48" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="C10" s="53" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="C11" s="53"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="C12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>498</v>
       </c>
@@ -38258,18 +38276,18 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>1210</v>
       </c>
@@ -38277,7 +38295,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>1219</v>
       </c>
@@ -38285,7 +38303,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -38293,53 +38311,53 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="102"/>
       <c r="C6" s="48" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="102" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="48" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="48" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3">
       <c r="C17" s="102" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3">
       <c r="C18" s="102" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3">
       <c r="C19" s="102" t="s">
         <v>1232</v>
       </c>
@@ -38359,19 +38377,19 @@
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -38379,12 +38397,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>1003</v>
       </c>
@@ -38392,7 +38410,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -38400,7 +38418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
@@ -38408,38 +38426,38 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="22" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>948</v>
       </c>
@@ -38460,19 +38478,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -38480,7 +38498,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -38488,7 +38506,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -38496,7 +38514,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>811</v>
       </c>
@@ -38504,7 +38522,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -38512,386 +38530,386 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="22" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4">
       <c r="C17" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="D19" s="22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="D20" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4">
       <c r="D22" s="22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="D23" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4">
       <c r="D25" s="22" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4">
       <c r="D26" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:4">
       <c r="C28" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:4">
       <c r="C29" s="4" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:4">
       <c r="C31" s="22" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:4">
       <c r="C32" s="16" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4">
       <c r="D34" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4">
       <c r="D35" s="4" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4">
       <c r="D37" s="22" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4">
       <c r="D38" s="16" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4">
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4">
       <c r="D40" s="22" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4">
       <c r="D41" s="16" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4">
       <c r="D42" s="22"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4">
       <c r="C43" s="22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4">
       <c r="C44" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4">
       <c r="C46" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4">
       <c r="C47" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4">
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="D49" s="22" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="D50" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4">
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="D52" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4">
       <c r="D53" s="16" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4">
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4">
       <c r="D55" s="22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:4">
       <c r="D56" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:4">
       <c r="D57" s="16"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:4">
       <c r="C58" s="22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:4">
       <c r="C59" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:4">
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:4">
       <c r="C61" s="22" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:4">
       <c r="C62" s="16" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:4">
       <c r="D63" s="16"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:4">
       <c r="C64" s="22" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:4">
       <c r="C65" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:4">
       <c r="C67" s="22" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:4">
       <c r="C68" s="16" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D69" s="22"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:4">
       <c r="C71" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:4">
       <c r="C72" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4">
       <c r="C73" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:4">
       <c r="C75" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:4">
       <c r="C76" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:4">
       <c r="C78" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:4">
       <c r="C79" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3">
       <c r="C81" s="22" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:3">
       <c r="C82" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:3">
       <c r="C84" s="22" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:3">
       <c r="C85" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:3">
       <c r="C87" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:3">
       <c r="C88" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:3">
       <c r="C90" s="22" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:3">
       <c r="C91" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:3">
       <c r="C93" s="22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:3">
       <c r="C94" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" s="22" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3">
       <c r="C97" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:3">
       <c r="C99" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:3">
       <c r="C100" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:3">
       <c r="C102" s="22" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:3">
       <c r="C103" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3">
       <c r="C105" s="22" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:3">
       <c r="C106" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:3">
       <c r="C108" s="22" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:3">
       <c r="C109" s="4" t="s">
         <v>783</v>
       </c>
@@ -38913,19 +38931,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="4"/>
+    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" s="4" t="s">
         <v>287</v>
       </c>
@@ -38933,7 +38951,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" s="4" t="s">
         <v>288</v>
       </c>
@@ -38941,7 +38959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" s="4" t="s">
         <v>986</v>
       </c>
@@ -38949,7 +38967,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
         <v>358</v>
       </c>
@@ -38957,7 +38975,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -38965,7 +38983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" s="4" t="s">
         <v>112</v>
       </c>
@@ -38973,7 +38991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -38981,7 +38999,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
         <v>732</v>
       </c>
@@ -38989,7 +39007,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" s="4" t="s">
         <v>444</v>
       </c>
@@ -38997,12 +39015,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
@@ -39010,32 +39028,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="4" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="D17" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="4" t="s">
         <v>1007</v>
       </c>
@@ -39043,22 +39061,22 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="C20" s="4" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6">
       <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6">
       <c r="C23" s="6" t="s">
         <v>769</v>
       </c>
@@ -39072,7 +39090,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6">
       <c r="C24" s="6">
         <v>9.57</v>
       </c>
@@ -39102,480 +39120,480 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" s="14" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="C6" s="16" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="C7" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="C8" s="14" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="C9" s="14" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="C10" s="16" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="C11" s="16" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="C13" s="16" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="C14" s="10" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="C15" s="16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="C16" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="C17" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="C18" s="16" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="C19" s="16" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="10"/>
       <c r="C21" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="10"/>
       <c r="C23" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="10"/>
       <c r="C24" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="10"/>
       <c r="C25" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="10"/>
       <c r="C26" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="10"/>
       <c r="C27" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="10"/>
       <c r="C28" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="10"/>
       <c r="C29" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="10"/>
       <c r="C30" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="10"/>
       <c r="C31" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="50">
         <v>39220</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" s="55" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="55"/>
     </row>
-    <row r="36" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="13.5">
       <c r="B36" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="13.5">
       <c r="B37" s="56"/>
     </row>
-    <row r="38" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="13.5">
       <c r="B38" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="13.5">
       <c r="B39" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="13.5">
       <c r="B40" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="13.5">
       <c r="B41" s="56"/>
     </row>
-    <row r="42" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" ht="13.5">
       <c r="B42" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" ht="13.5">
       <c r="B43" s="56" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" ht="13.5">
       <c r="B44" s="56" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" ht="13.5">
       <c r="B45" s="56" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="13.5">
       <c r="B46" s="56" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" ht="13.5">
       <c r="B47" s="56" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" ht="13.5">
       <c r="B48" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="13.5">
       <c r="B49" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="13.5">
       <c r="B50" s="56"/>
     </row>
-    <row r="51" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="13.5">
       <c r="B51" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="13.5">
       <c r="B52" s="56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="13.5">
       <c r="B53" s="56" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="13.5">
       <c r="B54" s="56" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="13.5">
       <c r="B55" s="56" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="13.5">
       <c r="B56" s="56" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="13.5">
       <c r="B57" s="56" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="13.5">
       <c r="B58" s="56" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="13.5">
       <c r="B59" s="56"/>
     </row>
-    <row r="60" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="13.5">
       <c r="B60" s="56" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="13.5">
       <c r="B61" s="56" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="13.5">
       <c r="B62" s="56"/>
     </row>
-    <row r="63" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="13.5">
       <c r="B63" s="56" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="13.5">
       <c r="B64" s="56" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="13.5">
       <c r="B65" s="56" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="13.5">
       <c r="B66" s="56" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="13.5">
       <c r="B67" s="56" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="13.5">
       <c r="B68" s="56" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="13.5">
       <c r="B69" s="56" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="13.5">
       <c r="B70" s="56" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="13.5">
       <c r="B71" s="56" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" ht="13.5">
       <c r="B72" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" ht="13.5">
       <c r="B73" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" ht="13.5">
       <c r="B74" s="56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" ht="13.5">
       <c r="B75" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" ht="13.5">
       <c r="B76" s="56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" ht="13.5">
       <c r="B77" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" ht="13.5">
       <c r="B78" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" ht="13.5">
       <c r="B79" s="56" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" ht="13.5">
       <c r="B80" s="56" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="13.5">
       <c r="B81" s="56"/>
     </row>
-    <row r="82" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" ht="13.5">
       <c r="B82" s="56" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" ht="13.5">
       <c r="B83" s="56" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" ht="13.5">
       <c r="B84" s="56" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" ht="13.5">
       <c r="B85" s="56" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" ht="13.5">
       <c r="B86" s="56" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" ht="13.5">
       <c r="B87" s="56" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" ht="13.5">
       <c r="B88" s="56" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" ht="13.5">
       <c r="B89" s="56"/>
     </row>
-    <row r="90" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" ht="13.5">
       <c r="B90" s="56" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" ht="13.5">
       <c r="B91" s="56" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="57" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="57" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="57" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="57" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="57" t="s">
         <v>709</v>
       </c>
@@ -39593,21 +39611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -39721,10 +39724,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B841A15-2A50-4D71-BDCC-63244230A1CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601B0B15-93E0-46F0-9CE9-49605130D0F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39739,17 +39765,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601B0B15-93E0-46F0-9CE9-49605130D0F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B841A15-2A50-4D71-BDCC-63244230A1CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/AMGN.xlsx
+++ b/AMGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD17455-5DCE-46BD-9387-348C0ACCDF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB4A80-2F81-427F-BBEC-6A3C2B36700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="2900" windowWidth="21900" windowHeight="14640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="1245" windowWidth="21345" windowHeight="14220" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="75" r:id="rId1"/>
@@ -7557,10 +7557,10 @@
       <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.81640625" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7873,10 +7873,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7935,12 +7935,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13">
+    <row r="9" spans="1:3">
       <c r="C9" s="48" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="48" t="s">
         <v>1429</v>
       </c>
@@ -7959,10 +7959,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8015,7 +8015,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1420</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1424</v>
       </c>
@@ -8044,10 +8044,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8108,17 +8108,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13">
+    <row r="9" spans="1:3">
       <c r="C9" s="48" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="48" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="13">
+    <row r="17" spans="3:3">
       <c r="C17" s="48" t="s">
         <v>1490</v>
       </c>
@@ -8137,10 +8137,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8179,7 +8179,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11" ht="13">
+    <row r="6" spans="1:11">
       <c r="C6" s="48" t="s">
         <v>510</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13">
+    <row r="9" spans="1:11">
       <c r="C9" s="48" t="s">
         <v>511</v>
       </c>
@@ -8233,7 +8233,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8278,13 +8278,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="B7" s="102"/>
       <c r="C7" s="48" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13">
+    <row r="9" spans="1:3">
       <c r="C9" s="48" t="s">
         <v>1217</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="48" t="s">
         <v>1215</v>
       </c>
@@ -8304,12 +8304,12 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="48" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="13">
+    <row r="18" spans="3:3">
       <c r="C18" s="48" t="s">
         <v>1220</v>
       </c>
@@ -8329,12 +8329,12 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="13">
+    <row r="24" spans="3:3">
       <c r="C24" s="48" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="13">
+    <row r="27" spans="3:3">
       <c r="C27" s="48" t="s">
         <v>1524</v>
       </c>
@@ -8354,11 +8354,11 @@
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8408,7 +8408,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
         <v>58</v>
@@ -8419,7 +8419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="22" t="s">
         <v>1027</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13">
+    <row r="15" spans="1:3">
       <c r="C15" s="22" t="s">
         <v>519</v>
       </c>
@@ -8455,10 +8455,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8503,12 +8503,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="48" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1408</v>
       </c>
@@ -8527,10 +8527,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8575,17 +8575,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="48" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="48" t="s">
         <v>1515</v>
       </c>
@@ -8604,10 +8604,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8654,22 +8654,22 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="13">
+    <row r="17" spans="3:3">
       <c r="C17" s="48" t="s">
         <v>1523</v>
       </c>
@@ -8688,10 +8688,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8736,7 +8736,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="48" t="s">
         <v>1394</v>
       </c>
@@ -8751,12 +8751,12 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1395</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="13">
+    <row r="20" spans="3:3">
       <c r="C20" s="48" t="s">
         <v>1391</v>
       </c>
@@ -8807,24 +8807,24 @@
   </sheetPr>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="4"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="2:7" ht="13">
+    <row r="47" spans="2:7">
       <c r="B47" s="64" t="s">
         <v>217</v>
       </c>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="2:7" s="23" customFormat="1" ht="13">
+    <row r="50" spans="2:7" s="23" customFormat="1">
       <c r="B50" s="5" t="s">
         <v>67</v>
       </c>
@@ -9860,117 +9860,117 @@
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="60" spans="2:7" ht="13">
+    <row r="60" spans="2:7">
       <c r="B60" s="14"/>
       <c r="E60" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:7" ht="13">
+    <row r="61" spans="2:7">
       <c r="B61" s="16"/>
       <c r="E61" s="23" t="s">
         <v>468</v>
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:7" ht="13">
+    <row r="62" spans="2:7">
       <c r="B62" s="16"/>
       <c r="E62" s="23" t="s">
         <v>514</v>
       </c>
       <c r="F62" s="33"/>
     </row>
-    <row r="63" spans="2:7" ht="13">
+    <row r="63" spans="2:7">
       <c r="E63" s="23" t="s">
         <v>317</v>
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:7" ht="13">
+    <row r="64" spans="2:7">
       <c r="B64" s="16"/>
       <c r="E64" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="2:6" ht="13">
+    <row r="65" spans="2:6">
       <c r="E65" s="23" t="s">
         <v>515</v>
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" ht="13">
+    <row r="66" spans="2:6">
       <c r="B66" s="14"/>
       <c r="E66" s="23" t="s">
         <v>819</v>
       </c>
       <c r="F66" s="33"/>
     </row>
-    <row r="67" spans="2:6" ht="13">
+    <row r="67" spans="2:6">
       <c r="B67" s="14"/>
       <c r="E67" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6" ht="13">
+    <row r="68" spans="2:6">
       <c r="E68" s="4" t="s">
         <v>883</v>
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" ht="13">
+    <row r="69" spans="2:6">
       <c r="E69" s="23" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="13">
+    <row r="70" spans="2:6">
       <c r="E70" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="2:6" ht="13">
+    <row r="71" spans="2:6">
       <c r="E71" s="23" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="13">
+    <row r="72" spans="2:6">
       <c r="E72" s="23" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="13">
+    <row r="73" spans="2:6">
       <c r="E73" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6" ht="13">
+    <row r="74" spans="2:6">
       <c r="E74" s="23" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="13">
+    <row r="75" spans="2:6">
       <c r="E75" s="23" t="s">
         <v>557</v>
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6" ht="13">
+    <row r="76" spans="2:6">
       <c r="E76" s="33" t="s">
         <v>886</v>
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6" ht="13">
+    <row r="77" spans="2:6">
       <c r="E77" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" ht="13">
+    <row r="78" spans="2:6">
       <c r="B78" s="4" t="s">
         <v>415</v>
       </c>
@@ -9979,57 +9979,57 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6" ht="13">
+    <row r="79" spans="2:6">
       <c r="E79" s="23" t="s">
         <v>887</v>
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="2:6" ht="13">
+    <row r="80" spans="2:6">
       <c r="E80" s="23" t="s">
         <v>481</v>
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="5:6" ht="13">
+    <row r="81" spans="5:6">
       <c r="E81" s="23" t="s">
         <v>480</v>
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="5:6" ht="13">
+    <row r="82" spans="5:6">
       <c r="E82" s="23" t="s">
         <v>726</v>
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="5:6" ht="13">
+    <row r="83" spans="5:6">
       <c r="E83" s="23" t="s">
         <v>616</v>
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="5:6" ht="13">
+    <row r="84" spans="5:6">
       <c r="E84" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="5:6" ht="13">
+    <row r="85" spans="5:6">
       <c r="E85" s="23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="86" spans="5:6" ht="13">
+    <row r="86" spans="5:6">
       <c r="E86" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="5:6" ht="13">
+    <row r="87" spans="5:6">
       <c r="E87" s="23" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="88" spans="5:6" ht="13">
+    <row r="88" spans="5:6">
       <c r="E88" s="23" t="s">
         <v>295</v>
       </c>
@@ -10039,32 +10039,32 @@
         <v>938</v>
       </c>
     </row>
-    <row r="90" spans="5:6" ht="13">
+    <row r="90" spans="5:6">
       <c r="E90" s="23" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="91" spans="5:6" ht="13">
+    <row r="91" spans="5:6">
       <c r="E91" s="23" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="92" spans="5:6" ht="13">
+    <row r="92" spans="5:6">
       <c r="E92" s="23" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="93" spans="5:6" ht="13">
+    <row r="93" spans="5:6">
       <c r="E93" s="23" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="94" spans="5:6" ht="13">
+    <row r="94" spans="5:6">
       <c r="E94" s="23" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="95" spans="5:6" ht="13">
+    <row r="95" spans="5:6">
       <c r="E95" s="23" t="s">
         <v>1061</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="107" spans="5:5" ht="13">
+    <row r="107" spans="5:5">
       <c r="E107" s="23" t="s">
         <v>1385</v>
       </c>
@@ -10174,10 +10174,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10230,37 +10230,37 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="48" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="48" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="13">
+    <row r="18" spans="3:3">
       <c r="C18" s="48" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="13">
+    <row r="20" spans="3:3">
       <c r="C20" s="48" t="s">
         <v>1469</v>
       </c>
@@ -10279,11 +10279,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10341,7 +10341,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="22" t="s">
         <v>1022</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="22" t="s">
         <v>162</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="13">
+    <row r="19" spans="3:4">
       <c r="D19" s="22" t="s">
         <v>306</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="13">
+    <row r="22" spans="3:4">
       <c r="D22" s="22" t="s">
         <v>310</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="13">
+    <row r="25" spans="3:4">
       <c r="D25" s="22" t="s">
         <v>853</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="13">
+    <row r="28" spans="3:4">
       <c r="C28" s="22" t="s">
         <v>856</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="13">
+    <row r="31" spans="3:4">
       <c r="C31" s="22" t="s">
         <v>858</v>
       </c>
@@ -10424,7 +10424,7 @@
     <row r="33" spans="3:4">
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="3:4" ht="13">
+    <row r="34" spans="3:4">
       <c r="D34" s="22" t="s">
         <v>185</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="13">
+    <row r="37" spans="3:4">
       <c r="D37" s="22" t="s">
         <v>734</v>
       </c>
@@ -10447,7 +10447,7 @@
     <row r="39" spans="3:4">
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="3:4" ht="13">
+    <row r="40" spans="3:4">
       <c r="D40" s="22" t="s">
         <v>736</v>
       </c>
@@ -10457,10 +10457,10 @@
         <v>847</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="13">
+    <row r="42" spans="3:4">
       <c r="D42" s="22"/>
     </row>
-    <row r="43" spans="3:4" ht="13">
+    <row r="43" spans="3:4">
       <c r="C43" s="22" t="s">
         <v>196</v>
       </c>
@@ -10473,7 +10473,7 @@
     <row r="45" spans="3:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="3:4" ht="13">
+    <row r="46" spans="3:4">
       <c r="C46" s="22" t="s">
         <v>198</v>
       </c>
@@ -10483,10 +10483,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="13">
+    <row r="48" spans="3:4">
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="3:4" ht="13">
+    <row r="49" spans="3:4">
       <c r="D49" s="22" t="s">
         <v>200</v>
       </c>
@@ -10499,7 +10499,7 @@
     <row r="51" spans="3:4">
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="3:4" ht="13">
+    <row r="52" spans="3:4">
       <c r="D52" s="22" t="s">
         <v>202</v>
       </c>
@@ -10509,10 +10509,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="13">
+    <row r="54" spans="3:4">
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="3:4" ht="13">
+    <row r="55" spans="3:4">
       <c r="D55" s="22" t="s">
         <v>204</v>
       </c>
@@ -10525,7 +10525,7 @@
     <row r="57" spans="3:4">
       <c r="D57" s="16"/>
     </row>
-    <row r="58" spans="3:4" ht="13">
+    <row r="58" spans="3:4">
       <c r="C58" s="22" t="s">
         <v>206</v>
       </c>
@@ -10538,7 +10538,7 @@
     <row r="60" spans="3:4">
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="3:4" ht="13">
+    <row r="61" spans="3:4">
       <c r="C61" s="22" t="s">
         <v>915</v>
       </c>
@@ -10551,7 +10551,7 @@
     <row r="63" spans="3:4">
       <c r="D63" s="16"/>
     </row>
-    <row r="64" spans="3:4" ht="13">
+    <row r="64" spans="3:4">
       <c r="C64" s="22" t="s">
         <v>917</v>
       </c>
@@ -10564,7 +10564,7 @@
     <row r="66" spans="2:4">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="2:4" ht="13">
+    <row r="67" spans="2:4">
       <c r="C67" s="22" t="s">
         <v>773</v>
       </c>
@@ -10574,18 +10574,18 @@
         <v>774</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="13">
+    <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D69" s="22"/>
     </row>
-    <row r="71" spans="2:4" ht="13">
+    <row r="71" spans="2:4">
       <c r="C71" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="13">
+    <row r="72" spans="2:4">
       <c r="C72" s="22" t="s">
         <v>160</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="13">
+    <row r="75" spans="2:4">
       <c r="C75" s="22" t="s">
         <v>157</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="13">
+    <row r="78" spans="2:4">
       <c r="C78" s="22" t="s">
         <v>517</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="13">
+    <row r="81" spans="3:3">
       <c r="C81" s="22" t="s">
         <v>388</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="13">
+    <row r="84" spans="3:3">
       <c r="C84" s="22" t="s">
         <v>390</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="13">
+    <row r="87" spans="3:3">
       <c r="C87" s="22" t="s">
         <v>155</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="3:3" ht="13">
+    <row r="90" spans="3:3">
       <c r="C90" s="22" t="s">
         <v>251</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="3:3" ht="13">
+    <row r="93" spans="3:3">
       <c r="C93" s="22" t="s">
         <v>359</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="96" spans="3:3" ht="13">
+    <row r="96" spans="3:3">
       <c r="C96" s="22" t="s">
         <v>361</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="3:3" ht="13">
+    <row r="99" spans="3:3">
       <c r="C99" s="22" t="s">
         <v>0</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:3" ht="13">
+    <row r="102" spans="3:3">
       <c r="C102" s="22" t="s">
         <v>771</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="3:3" ht="13">
+    <row r="105" spans="3:3">
       <c r="C105" s="22" t="s">
         <v>775</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="3:3" ht="13">
+    <row r="108" spans="3:3">
       <c r="C108" s="22" t="s">
         <v>777</v>
       </c>
@@ -10732,11 +10732,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10921,10 +10921,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10940,12 +10940,12 @@
     <row r="3" spans="1:3">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="13">
+    <row r="4" spans="1:3">
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="14" t="s">
         <v>296</v>
       </c>
@@ -10955,17 +10955,17 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13">
+    <row r="7" spans="1:3">
       <c r="C7" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="14" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13">
+    <row r="9" spans="1:3">
       <c r="C9" s="14" t="s">
         <v>615</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13">
+    <row r="12" spans="1:3">
       <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
@@ -11108,268 +11108,268 @@
     <row r="35" spans="2:2">
       <c r="B35" s="55"/>
     </row>
-    <row r="36" spans="2:2" ht="13">
+    <row r="36" spans="2:2" ht="13.5">
       <c r="B36" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="13">
+    <row r="37" spans="2:2" ht="13.5">
       <c r="B37" s="56"/>
     </row>
-    <row r="38" spans="2:2" ht="13">
+    <row r="38" spans="2:2" ht="13.5">
       <c r="B38" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="13">
+    <row r="39" spans="2:2" ht="13.5">
       <c r="B39" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="13">
+    <row r="40" spans="2:2" ht="13.5">
       <c r="B40" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="13">
+    <row r="41" spans="2:2" ht="13.5">
       <c r="B41" s="56"/>
     </row>
-    <row r="42" spans="2:2" ht="13">
+    <row r="42" spans="2:2" ht="13.5">
       <c r="B42" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="13">
+    <row r="43" spans="2:2" ht="13.5">
       <c r="B43" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="13">
+    <row r="44" spans="2:2" ht="13.5">
       <c r="B44" s="56" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="13">
+    <row r="45" spans="2:2" ht="13.5">
       <c r="B45" s="56" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="13">
+    <row r="46" spans="2:2" ht="13.5">
       <c r="B46" s="56" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="13">
+    <row r="47" spans="2:2" ht="13.5">
       <c r="B47" s="56" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="13">
+    <row r="48" spans="2:2" ht="13.5">
       <c r="B48" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="13">
+    <row r="49" spans="2:2" ht="13.5">
       <c r="B49" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="13">
+    <row r="50" spans="2:2" ht="13.5">
       <c r="B50" s="56"/>
     </row>
-    <row r="51" spans="2:2" ht="13">
+    <row r="51" spans="2:2" ht="13.5">
       <c r="B51" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="13">
+    <row r="52" spans="2:2" ht="13.5">
       <c r="B52" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="13">
+    <row r="53" spans="2:2" ht="13.5">
       <c r="B53" s="56" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="13">
+    <row r="54" spans="2:2" ht="13.5">
       <c r="B54" s="56" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="13">
+    <row r="55" spans="2:2" ht="13.5">
       <c r="B55" s="56" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="13">
+    <row r="56" spans="2:2" ht="13.5">
       <c r="B56" s="56" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="13">
+    <row r="57" spans="2:2" ht="13.5">
       <c r="B57" s="56" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="13">
+    <row r="58" spans="2:2" ht="13.5">
       <c r="B58" s="56" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="13">
+    <row r="59" spans="2:2" ht="13.5">
       <c r="B59" s="56"/>
     </row>
-    <row r="60" spans="2:2" ht="13">
+    <row r="60" spans="2:2" ht="13.5">
       <c r="B60" s="56" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="13">
+    <row r="61" spans="2:2" ht="13.5">
       <c r="B61" s="56" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="13">
+    <row r="62" spans="2:2" ht="13.5">
       <c r="B62" s="56"/>
     </row>
-    <row r="63" spans="2:2" ht="13">
+    <row r="63" spans="2:2" ht="13.5">
       <c r="B63" s="56" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="13">
+    <row r="64" spans="2:2" ht="13.5">
       <c r="B64" s="56" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="13">
+    <row r="65" spans="2:2" ht="13.5">
       <c r="B65" s="56" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="13">
+    <row r="66" spans="2:2" ht="13.5">
       <c r="B66" s="56" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="13">
+    <row r="67" spans="2:2" ht="13.5">
       <c r="B67" s="56" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="13">
+    <row r="68" spans="2:2" ht="13.5">
       <c r="B68" s="56" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="13">
+    <row r="69" spans="2:2" ht="13.5">
       <c r="B69" s="56" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="13">
+    <row r="70" spans="2:2" ht="13.5">
       <c r="B70" s="56" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="13">
+    <row r="71" spans="2:2" ht="13.5">
       <c r="B71" s="56" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="13">
+    <row r="72" spans="2:2" ht="13.5">
       <c r="B72" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="13">
+    <row r="73" spans="2:2" ht="13.5">
       <c r="B73" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="13">
+    <row r="74" spans="2:2" ht="13.5">
       <c r="B74" s="56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="13">
+    <row r="75" spans="2:2" ht="13.5">
       <c r="B75" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="13">
+    <row r="76" spans="2:2" ht="13.5">
       <c r="B76" s="56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="13">
+    <row r="77" spans="2:2" ht="13.5">
       <c r="B77" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="13">
+    <row r="78" spans="2:2" ht="13.5">
       <c r="B78" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="13">
+    <row r="79" spans="2:2" ht="13.5">
       <c r="B79" s="56" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="13">
+    <row r="80" spans="2:2" ht="13.5">
       <c r="B80" s="56" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="13">
+    <row r="81" spans="2:2" ht="13.5">
       <c r="B81" s="56"/>
     </row>
-    <row r="82" spans="2:2" ht="13">
+    <row r="82" spans="2:2" ht="13.5">
       <c r="B82" s="56" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="13">
+    <row r="83" spans="2:2" ht="13.5">
       <c r="B83" s="56" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="13">
+    <row r="84" spans="2:2" ht="13.5">
       <c r="B84" s="56" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="13">
+    <row r="85" spans="2:2" ht="13.5">
       <c r="B85" s="56" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="13">
+    <row r="86" spans="2:2" ht="13.5">
       <c r="B86" s="56" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="13">
+    <row r="87" spans="2:2" ht="13.5">
       <c r="B87" s="56" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="13">
+    <row r="88" spans="2:2" ht="13.5">
       <c r="B88" s="56" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="13">
+    <row r="89" spans="2:2" ht="13.5">
       <c r="B89" s="56"/>
     </row>
-    <row r="90" spans="2:2" ht="13">
+    <row r="90" spans="2:2" ht="13.5">
       <c r="B90" s="56" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="13">
+    <row r="91" spans="2:2" ht="13.5">
       <c r="B91" s="56" t="s">
         <v>704</v>
       </c>
@@ -11417,13 +11417,13 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" ht="13">
+    <row r="30" spans="2:4">
       <c r="C30" s="22" t="s">
         <v>142</v>
       </c>
@@ -11664,7 +11664,7 @@
     <row r="34" spans="3:4">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="3:4" ht="13">
+    <row r="35" spans="3:4">
       <c r="C35" s="22" t="s">
         <v>143</v>
       </c>
@@ -11682,7 +11682,7 @@
     <row r="38" spans="3:4">
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="3:4" ht="13">
+    <row r="39" spans="3:4">
       <c r="C39" s="22" t="s">
         <v>465</v>
       </c>
@@ -11700,7 +11700,7 @@
     <row r="42" spans="3:4">
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="3:4" ht="13">
+    <row r="43" spans="3:4">
       <c r="C43" s="22" t="s">
         <v>138</v>
       </c>
@@ -11714,7 +11714,7 @@
     <row r="45" spans="3:4">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="3:4" ht="13">
+    <row r="46" spans="3:4">
       <c r="C46" s="22" t="s">
         <v>392</v>
       </c>
@@ -11735,7 +11735,7 @@
     <row r="49" spans="3:4">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4" ht="13">
+    <row r="50" spans="3:4">
       <c r="C50" s="22" t="s">
         <v>128</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="61" spans="3:4" ht="13">
+    <row r="61" spans="3:4">
       <c r="C61" s="22" t="s">
         <v>989</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="3:3" ht="13">
+    <row r="67" spans="3:3">
       <c r="C67" s="22" t="s">
         <v>622</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="3:3" ht="13">
+    <row r="70" spans="3:3">
       <c r="C70" s="22" t="s">
         <v>624</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="73" spans="3:3" ht="13">
+    <row r="73" spans="3:3">
       <c r="C73" s="22" t="s">
         <v>553</v>
       </c>
@@ -11851,7 +11851,7 @@
     <row r="75" spans="3:3">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="3:3" ht="13">
+    <row r="76" spans="3:3">
       <c r="C76" s="28" t="s">
         <v>71</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="3:3" ht="13">
+    <row r="80" spans="3:3">
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="119" spans="3:4" ht="13">
+    <row r="119" spans="3:4">
       <c r="C119" s="22" t="s">
         <v>862</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="125" spans="3:4" ht="13">
+    <row r="125" spans="3:4">
       <c r="C125" s="22" t="s">
         <v>868</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="130" spans="3:3" ht="13">
+    <row r="130" spans="3:3">
       <c r="C130" s="22" t="s">
         <v>942</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="13">
+    <row r="134" spans="3:3">
       <c r="C134" s="22" t="s">
         <v>136</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="3:3" ht="13">
+    <row r="144" spans="3:3">
       <c r="C144" s="22" t="s">
         <v>686</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="3:3" ht="13">
+    <row r="151" spans="3:3">
       <c r="C151" s="14" t="s">
         <v>227</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="3:3" ht="13">
+    <row r="160" spans="3:3">
       <c r="C160" s="22" t="s">
         <v>526</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="3:3" ht="13">
+    <row r="164" spans="3:3">
       <c r="C164" s="22" t="s">
         <v>140</v>
       </c>
@@ -12243,10 +12243,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="3:3" ht="13">
+    <row r="166" spans="3:3">
       <c r="C166" s="22"/>
     </row>
-    <row r="168" spans="3:3" ht="13">
+    <row r="168" spans="3:3">
       <c r="C168" s="22" t="s">
         <v>325</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="3:3" ht="13">
+    <row r="172" spans="3:3">
       <c r="C172" s="22" t="s">
         <v>930</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="13">
+    <row r="177" spans="3:3">
       <c r="C177" s="22" t="s">
         <v>934</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="181" spans="3:3" ht="13">
+    <row r="181" spans="3:3">
       <c r="C181" s="22" t="s">
         <v>244</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="3:3" ht="13">
+    <row r="185" spans="3:3">
       <c r="C185" s="22" t="s">
         <v>240</v>
       </c>
@@ -12321,17 +12321,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="3:3" ht="13">
+    <row r="188" spans="3:3">
       <c r="C188" s="22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="3:3" ht="13">
+    <row r="191" spans="3:3">
       <c r="C191" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="3:3" ht="13">
+    <row r="194" spans="3:3">
       <c r="C194" s="22" t="s">
         <v>1004</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="200" spans="3:3" ht="13">
+    <row r="200" spans="3:3">
       <c r="C200" s="22" t="s">
         <v>1070</v>
       </c>
@@ -12386,9 +12386,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -12461,7 +12461,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="13.5">
+    <row r="15" spans="2:3">
       <c r="B15" s="21" t="s">
         <v>1000</v>
       </c>
@@ -12518,11 +12518,11 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12635,7 +12635,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="13">
+    <row r="18" spans="3:4">
       <c r="C18" s="22" t="s">
         <v>633</v>
       </c>
@@ -12677,11 +12677,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12775,7 +12775,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13">
+    <row r="15" spans="1:3">
       <c r="C15" s="22" t="s">
         <v>712</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="13">
+    <row r="18" spans="3:3">
       <c r="C18" s="22" t="s">
         <v>715</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="13">
+    <row r="21" spans="3:3">
       <c r="C21" s="22" t="s">
         <v>716</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="13">
+    <row r="24" spans="3:3">
       <c r="C24" s="22" t="s">
         <v>912</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="13">
+    <row r="27" spans="3:3">
       <c r="C27" s="28" t="s">
         <v>825</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="39" spans="3:3" ht="13">
+    <row r="39" spans="3:3">
       <c r="C39" s="22" t="s">
         <v>189</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="44" spans="3:3" ht="13">
+    <row r="44" spans="3:3">
       <c r="C44" s="22" t="s">
         <v>190</v>
       </c>
@@ -12926,15 +12926,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.1796875" style="4"/>
-    <col min="10" max="10" width="22.26953125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="4"/>
+    <col min="5" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="22.28515625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13041,7 +13041,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4">
       <c r="B16" s="22" t="s">
         <v>1032</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="13">
+    <row r="19" spans="2:16">
       <c r="B19" s="14" t="s">
         <v>1036</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="13">
+    <row r="22" spans="2:16">
       <c r="B22" s="14" t="s">
         <v>947</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="13">
+    <row r="24" spans="2:16">
       <c r="B24" s="51" t="s">
         <v>499</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="13">
+    <row r="26" spans="2:16">
       <c r="B26" s="22" t="s">
         <v>1035</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="13" thickBot="1">
+    <row r="28" spans="2:16" ht="13.5" thickBot="1">
       <c r="B28" s="27" t="s">
         <v>588</v>
       </c>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="P31" s="40"/>
     </row>
-    <row r="32" spans="2:16" ht="13">
+    <row r="32" spans="2:16">
       <c r="B32" s="22" t="s">
         <v>1053</v>
       </c>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="2:16" ht="13">
+    <row r="36" spans="2:16">
       <c r="B36" s="22" t="s">
         <v>905</v>
       </c>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="2:16" ht="13">
+    <row r="39" spans="2:16">
       <c r="B39" s="22" t="s">
         <v>1016</v>
       </c>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="2:16" ht="13">
+    <row r="40" spans="2:16">
       <c r="B40" s="22"/>
       <c r="K40" s="39" t="s">
         <v>583</v>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="2:16" ht="13">
+    <row r="41" spans="2:16">
       <c r="B41" s="22" t="s">
         <v>1015</v>
       </c>
@@ -13338,13 +13338,13 @@
     <row r="42" spans="2:16">
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="2:16" ht="13">
+    <row r="43" spans="2:16">
       <c r="B43" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="2:16" ht="13" thickBot="1">
+    <row r="44" spans="2:16" ht="13.5" thickBot="1">
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
     </row>
-    <row r="46" spans="2:16" ht="13">
+    <row r="46" spans="2:16">
       <c r="B46" s="22" t="s">
         <v>1054</v>
       </c>
@@ -13368,7 +13368,7 @@
     <row r="48" spans="2:16">
       <c r="B48" s="16"/>
     </row>
-    <row r="49" spans="2:12" ht="13">
+    <row r="49" spans="2:12">
       <c r="B49" s="22" t="s">
         <v>1020</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13">
+    <row r="52" spans="2:12">
       <c r="B52" s="22" t="s">
         <v>1020</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="13">
+    <row r="55" spans="2:12">
       <c r="B55" s="22" t="s">
         <v>1017</v>
       </c>
@@ -13424,12 +13424,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13">
+    <row r="58" spans="2:12">
       <c r="B58" s="14" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="13">
+    <row r="59" spans="2:12">
       <c r="B59" s="14" t="s">
         <v>1018</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13">
+    <row r="63" spans="2:12">
       <c r="B63" s="22" t="s">
         <v>1019</v>
       </c>
@@ -13459,17 +13459,17 @@
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="13">
+    <row r="69" spans="2:3">
       <c r="B69" s="22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="13">
+    <row r="71" spans="2:3">
       <c r="B71" s="22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="13">
+    <row r="73" spans="2:3">
       <c r="B73" s="22" t="s">
         <v>115</v>
       </c>
@@ -13506,17 +13506,17 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="4"/>
-    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13680,7 +13680,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="13">
+    <row r="24" spans="2:3">
       <c r="C24" s="22" t="s">
         <v>1078</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="13">
+    <row r="30" spans="2:3">
       <c r="C30" s="22" t="s">
         <v>168</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="3:3" ht="13">
+    <row r="34" spans="3:3">
       <c r="C34" s="22" t="s">
         <v>617</v>
       </c>
@@ -13735,12 +13735,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="13">
+    <row r="37" spans="3:3">
       <c r="C37" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="3:3" ht="13">
+    <row r="38" spans="3:3">
       <c r="C38" s="14" t="s">
         <v>1029</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="43" spans="3:3" ht="13">
+    <row r="43" spans="3:3">
       <c r="C43" s="22" t="s">
         <v>986</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="13">
+    <row r="49" spans="3:9">
       <c r="C49" s="22" t="s">
         <v>46</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="13">
+    <row r="53" spans="3:9">
       <c r="C53" s="22" t="s">
         <v>661</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="D58" s="4"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="3:9" ht="13">
+    <row r="59" spans="3:9">
       <c r="C59" s="22" t="s">
         <v>419</v>
       </c>
@@ -13860,14 +13860,14 @@
       <c r="D60" s="4"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="3:9" ht="13">
+    <row r="61" spans="3:9">
       <c r="C61" s="14" t="s">
         <v>449</v>
       </c>
       <c r="D61" s="4"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="63" spans="3:9" ht="13">
+    <row r="63" spans="3:9">
       <c r="C63" s="22" t="s">
         <v>1095</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="3:13" ht="13">
+    <row r="66" spans="3:13">
       <c r="C66" s="22" t="s">
         <v>1096</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="70" spans="3:13" ht="13">
+    <row r="70" spans="3:13">
       <c r="C70" s="22" t="s">
         <v>1074</v>
       </c>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="M72" s="69"/>
     </row>
-    <row r="73" spans="3:13" ht="13">
+    <row r="73" spans="3:13">
       <c r="C73" s="14" t="s">
         <v>1084</v>
       </c>
@@ -13925,7 +13925,7 @@
     <row r="75" spans="3:13">
       <c r="M75" s="69"/>
     </row>
-    <row r="76" spans="3:13" ht="13">
+    <row r="76" spans="3:13">
       <c r="C76" s="22" t="s">
         <v>621</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="83" spans="3:3" ht="13">
+    <row r="83" spans="3:3">
       <c r="C83" s="23" t="s">
         <v>195</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="87" spans="3:3" ht="13">
+    <row r="87" spans="3:3">
       <c r="C87" s="22" t="s">
         <v>44</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:3" ht="13">
+    <row r="91" spans="3:3">
       <c r="C91" s="22" t="s">
         <v>78</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="3:3" ht="13">
+    <row r="95" spans="3:3">
       <c r="C95" s="22" t="s">
         <v>1066</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="98" spans="3:4" ht="13">
+    <row r="98" spans="3:4">
       <c r="C98" s="22" t="s">
         <v>333</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="101" spans="3:4" ht="13">
+    <row r="101" spans="3:4">
       <c r="C101" s="22" t="s">
         <v>1099</v>
       </c>
@@ -14043,36 +14043,36 @@
   </sheetPr>
   <dimension ref="A1:HB238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CF68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="DQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CM104" sqref="CM104"/>
+      <selection pane="bottomRight" activeCell="DT32" sqref="DT32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="71" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="7.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.26953125" style="71" bestFit="1" customWidth="1"/>
-    <col min="29" max="38" width="7.453125" style="71" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
-    <col min="40" max="90" width="7.26953125" style="71" customWidth="1"/>
-    <col min="91" max="103" width="7.26953125" style="114" customWidth="1"/>
-    <col min="104" max="104" width="9.1796875" style="71"/>
-    <col min="105" max="122" width="7.26953125" style="71" customWidth="1"/>
-    <col min="123" max="135" width="8.453125" style="71" customWidth="1"/>
-    <col min="136" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="29" max="38" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="40" max="90" width="7.28515625" style="71" customWidth="1"/>
+    <col min="91" max="103" width="7.28515625" style="114" customWidth="1"/>
+    <col min="104" max="104" width="9.140625" style="71"/>
+    <col min="105" max="122" width="7.28515625" style="71" customWidth="1"/>
+    <col min="123" max="135" width="8.42578125" style="71" customWidth="1"/>
+    <col min="136" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140">
@@ -25018,7 +25018,7 @@
         <v>487.45245925980009</v>
       </c>
     </row>
-    <row r="41" spans="2:140" s="15" customFormat="1" ht="13">
+    <row r="41" spans="2:140" s="15" customFormat="1">
       <c r="B41" s="32" t="s">
         <v>442</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>4379.8472196301927</v>
       </c>
     </row>
-    <row r="52" spans="2:210" s="61" customFormat="1" ht="13">
+    <row r="52" spans="2:210" s="61" customFormat="1">
       <c r="B52" s="91" t="s">
         <v>447</v>
       </c>
@@ -30939,7 +30939,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="2:210" s="19" customFormat="1" ht="13">
+    <row r="55" spans="2:210" s="19" customFormat="1">
       <c r="B55" s="38" t="s">
         <v>101</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="56" spans="2:210" s="30" customFormat="1" ht="13">
+    <row r="56" spans="2:210" s="30" customFormat="1">
       <c r="B56" s="30" t="s">
         <v>282</v>
       </c>
@@ -31812,7 +31812,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:210" s="30" customFormat="1" ht="13">
+    <row r="57" spans="2:210" s="30" customFormat="1">
       <c r="B57" s="30" t="s">
         <v>283</v>
       </c>
@@ -32246,7 +32246,7 @@
         <v>170762.78155278065</v>
       </c>
     </row>
-    <row r="58" spans="2:210" s="30" customFormat="1" ht="13">
+    <row r="58" spans="2:210" s="30" customFormat="1">
       <c r="B58" s="30" t="s">
         <v>974</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>315.06048256970598</v>
       </c>
     </row>
-    <row r="59" spans="2:210" s="30" customFormat="1" ht="13">
+    <row r="59" spans="2:210" s="30" customFormat="1">
       <c r="B59" s="30" t="s">
         <v>975</v>
       </c>
@@ -33131,7 +33131,7 @@
         <v>0.61674921059114751</v>
       </c>
     </row>
-    <row r="60" spans="2:210" s="38" customFormat="1" ht="13">
+    <row r="60" spans="2:210" s="38" customFormat="1">
       <c r="B60" s="38" t="s">
         <v>445</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:210" s="30" customFormat="1" ht="13">
+    <row r="61" spans="2:210" s="30" customFormat="1">
       <c r="C61" s="82"/>
       <c r="D61" s="82"/>
       <c r="E61" s="82"/>
@@ -33708,7 +33708,7 @@
       <c r="ED61" s="82"/>
       <c r="EE61" s="82"/>
     </row>
-    <row r="62" spans="2:210" s="31" customFormat="1" ht="13">
+    <row r="62" spans="2:210" s="31" customFormat="1">
       <c r="B62" s="35" t="s">
         <v>281</v>
       </c>
@@ -34130,7 +34130,7 @@
         <v>-0.18696118636653958</v>
       </c>
     </row>
-    <row r="63" spans="2:210" s="31" customFormat="1" ht="13">
+    <row r="63" spans="2:210" s="31" customFormat="1">
       <c r="B63" s="35" t="s">
         <v>1352</v>
       </c>
@@ -34268,7 +34268,7 @@
       <c r="ED63" s="85"/>
       <c r="EE63" s="85"/>
     </row>
-    <row r="64" spans="2:210" s="15" customFormat="1" ht="13">
+    <row r="64" spans="2:210" s="15" customFormat="1">
       <c r="B64" s="30" t="s">
         <v>178</v>
       </c>
@@ -34577,7 +34577,7 @@
       <c r="ED64" s="72"/>
       <c r="EE64" s="72"/>
     </row>
-    <row r="65" spans="2:145" s="37" customFormat="1" ht="13">
+    <row r="65" spans="2:145" s="37" customFormat="1">
       <c r="B65" s="30" t="s">
         <v>177</v>
       </c>
@@ -34871,7 +34871,7 @@
       <c r="ED65" s="99"/>
       <c r="EE65" s="99"/>
     </row>
-    <row r="66" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="66" spans="2:145" s="15" customFormat="1">
       <c r="B66" s="30" t="s">
         <v>176</v>
       </c>
@@ -35173,7 +35173,7 @@
       <c r="ED66" s="72"/>
       <c r="EE66" s="72"/>
     </row>
-    <row r="67" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="67" spans="2:145" s="15" customFormat="1">
       <c r="B67" s="30" t="s">
         <v>437</v>
       </c>
@@ -35446,7 +35446,7 @@
       <c r="ED67" s="72"/>
       <c r="EE67" s="72"/>
     </row>
-    <row r="68" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="68" spans="2:145" s="15" customFormat="1">
       <c r="B68" s="30" t="s">
         <v>719</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="69" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="69" spans="2:145" s="15" customFormat="1">
       <c r="B69" s="30" t="s">
         <v>721</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="70" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="70" spans="2:145" s="15" customFormat="1">
       <c r="B70" s="30" t="s">
         <v>1118</v>
       </c>
@@ -36205,7 +36205,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="71" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="71" spans="2:145" s="15" customFormat="1">
       <c r="B71" s="30" t="s">
         <v>944</v>
       </c>
@@ -36358,7 +36358,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="72" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="72" spans="2:145" s="15" customFormat="1">
       <c r="B72" s="30" t="s">
         <v>1126</v>
       </c>
@@ -36549,7 +36549,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="73" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="73" spans="2:145" s="15" customFormat="1">
       <c r="B73" s="30" t="s">
         <v>27</v>
       </c>
@@ -36790,7 +36790,7 @@
       <c r="EC73" s="72"/>
       <c r="EE73" s="72"/>
     </row>
-    <row r="74" spans="2:145" s="15" customFormat="1" ht="13">
+    <row r="74" spans="2:145" s="15" customFormat="1">
       <c r="B74" s="30" t="s">
         <v>284</v>
       </c>
@@ -37060,7 +37060,7 @@
       <c r="ED74" s="72"/>
       <c r="EE74" s="72"/>
     </row>
-    <row r="75" spans="2:145" s="30" customFormat="1" ht="13">
+    <row r="75" spans="2:145" s="30" customFormat="1">
       <c r="B75" s="30" t="s">
         <v>720</v>
       </c>
@@ -37330,7 +37330,7 @@
       <c r="ED75" s="82"/>
       <c r="EE75" s="82"/>
     </row>
-    <row r="76" spans="2:145" s="31" customFormat="1" ht="13">
+    <row r="76" spans="2:145" s="31" customFormat="1">
       <c r="B76" s="35" t="s">
         <v>314</v>
       </c>
@@ -38144,7 +38144,7 @@
         <v>7317</v>
       </c>
     </row>
-    <row r="82" spans="2:135" s="14" customFormat="1" ht="13">
+    <row r="82" spans="2:135" s="14" customFormat="1">
       <c r="B82" s="14" t="s">
         <v>370</v>
       </c>
@@ -41704,7 +41704,7 @@
       <c r="CK135" s="114"/>
       <c r="CL135" s="114"/>
     </row>
-    <row r="136" spans="2:110" ht="13">
+    <row r="136" spans="2:110">
       <c r="B136" s="14" t="s">
         <v>1006</v>
       </c>
@@ -41858,7 +41858,7 @@
       <c r="CK137" s="114"/>
       <c r="CL137" s="114"/>
     </row>
-    <row r="138" spans="2:110" ht="13">
+    <row r="138" spans="2:110">
       <c r="B138" s="4" t="s">
         <v>1008</v>
       </c>
@@ -41926,7 +41926,7 @@
       <c r="CK138" s="114"/>
       <c r="CL138" s="114"/>
     </row>
-    <row r="139" spans="2:110" ht="13">
+    <row r="139" spans="2:110">
       <c r="B139" s="4" t="s">
         <v>182</v>
       </c>
@@ -42140,7 +42140,7 @@
       <c r="CK141" s="114"/>
       <c r="CL141" s="114"/>
     </row>
-    <row r="142" spans="2:110" ht="13">
+    <row r="142" spans="2:110">
       <c r="B142" s="4" t="s">
         <v>183</v>
       </c>
@@ -42294,7 +42294,7 @@
       <c r="CK143" s="114"/>
       <c r="CL143" s="114"/>
     </row>
-    <row r="144" spans="2:110" ht="13">
+    <row r="144" spans="2:110">
       <c r="B144" s="4" t="s">
         <v>643</v>
       </c>
@@ -42363,7 +42363,7 @@
       <c r="CK144" s="114"/>
       <c r="CL144" s="114"/>
     </row>
-    <row r="145" spans="2:90" ht="13">
+    <row r="145" spans="2:90">
       <c r="B145" s="4" t="s">
         <v>644</v>
       </c>
@@ -42517,7 +42517,7 @@
       <c r="CK146" s="114"/>
       <c r="CL146" s="114"/>
     </row>
-    <row r="147" spans="2:90" ht="13">
+    <row r="147" spans="2:90">
       <c r="B147" s="4" t="s">
         <v>649</v>
       </c>
@@ -42577,7 +42577,7 @@
       <c r="CK147" s="114"/>
       <c r="CL147" s="114"/>
     </row>
-    <row r="148" spans="2:90" ht="13">
+    <row r="148" spans="2:90">
       <c r="B148" s="4" t="s">
         <v>650</v>
       </c>
@@ -42731,7 +42731,7 @@
       <c r="CK149" s="114"/>
       <c r="CL149" s="114"/>
     </row>
-    <row r="150" spans="2:90" ht="13">
+    <row r="150" spans="2:90">
       <c r="B150" s="4" t="s">
         <v>743</v>
       </c>
@@ -43315,7 +43315,7 @@
       <c r="ED167" s="67"/>
       <c r="EE167" s="67"/>
     </row>
-    <row r="168" spans="2:135" s="32" customFormat="1" ht="13">
+    <row r="168" spans="2:135" s="32" customFormat="1">
       <c r="B168" s="32" t="s">
         <v>442</v>
       </c>
@@ -43908,7 +43908,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
@@ -43920,7 +43920,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="13">
+    <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="B8" s="22" t="s">
         <v>732</v>
       </c>
@@ -44056,11 +44056,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44108,10 +44108,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44145,7 +44145,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13">
+    <row r="6" spans="1:3">
       <c r="C6" s="48" t="s">
         <v>1529</v>
       </c>
@@ -44167,11 +44167,11 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44234,7 +44234,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="22" t="s">
         <v>709</v>
       </c>
@@ -44247,7 +44247,7 @@
     <row r="12" spans="1:3">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="22" t="s">
         <v>809</v>
       </c>
@@ -44277,7 +44277,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="13">
+    <row r="20" spans="3:4">
       <c r="C20" s="22" t="s">
         <v>516</v>
       </c>
@@ -44287,10 +44287,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="13">
+    <row r="22" spans="3:4">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:4" ht="13">
+    <row r="23" spans="3:4">
       <c r="C23" s="22" t="s">
         <v>710</v>
       </c>
@@ -44303,7 +44303,7 @@
     <row r="25" spans="3:4">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="3:4" ht="13">
+    <row r="26" spans="3:4">
       <c r="C26" s="28" t="s">
         <v>846</v>
       </c>
@@ -44376,7 +44376,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="13">
+    <row r="38" spans="3:4">
       <c r="C38" s="22" t="s">
         <v>889</v>
       </c>
@@ -44386,7 +44386,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="13">
+    <row r="41" spans="3:4">
       <c r="C41" s="22" t="s">
         <v>637</v>
       </c>
@@ -44396,7 +44396,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="13">
+    <row r="43" spans="3:4">
       <c r="C43" s="14"/>
     </row>
     <row r="44" spans="3:4">
@@ -44417,12 +44417,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="13">
+    <row r="48" spans="3:4">
       <c r="C48" s="14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="13">
+    <row r="49" spans="3:4">
       <c r="C49" s="14"/>
     </row>
     <row r="50" spans="3:4">
@@ -44440,7 +44440,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="13">
+    <row r="54" spans="3:4">
       <c r="C54" s="22" t="s">
         <v>903</v>
       </c>
@@ -44503,7 +44503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -44528,7 +44528,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -44574,10 +44574,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44603,7 +44603,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>852</v>
       </c>
@@ -44624,10 +44624,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44656,7 +44656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>1101</v>
       </c>
@@ -44672,7 +44672,7 @@
     <row r="8" spans="1:3">
       <c r="C8" s="53"/>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>922</v>
       </c>
@@ -44693,10 +44693,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -44853,12 +44853,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="13">
+    <row r="32" spans="2:4">
       <c r="C32" s="48" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="13">
+    <row r="35" spans="3:3">
       <c r="C35" s="48" t="s">
         <v>1103</v>
       </c>
@@ -44880,11 +44880,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -44921,7 +44921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="22" t="s">
         <v>662</v>
       </c>
@@ -44947,10 +44947,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45003,12 +45003,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1414</v>
       </c>
@@ -45027,7 +45027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -45062,13 +45062,13 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="B5" s="53" t="s">
         <v>322</v>
       </c>
       <c r="C5" s="48"/>
     </row>
-    <row r="6" spans="1:3" ht="13">
+    <row r="6" spans="1:3">
       <c r="B6" s="53"/>
       <c r="C6" s="48" t="s">
         <v>1063</v>
@@ -45080,15 +45080,15 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="B8" s="53"/>
       <c r="C8" s="48"/>
     </row>
-    <row r="9" spans="1:3" ht="13">
+    <row r="9" spans="1:3">
       <c r="B9" s="53"/>
       <c r="C9" s="48"/>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1058</v>
       </c>
@@ -45112,7 +45112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -45136,7 +45136,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13">
+    <row r="4" spans="1:3">
       <c r="C4" s="48" t="s">
         <v>688</v>
       </c>
@@ -45162,10 +45162,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45194,7 +45194,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>926</v>
       </c>
@@ -45217,10 +45217,10 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45249,7 +45249,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13">
+    <row r="5" spans="1:3">
       <c r="C5" s="48" t="s">
         <v>920</v>
       </c>
@@ -45270,10 +45270,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45329,7 +45329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
@@ -45442,11 +45442,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45574,10 +45574,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45643,7 +45643,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="B10" s="102"/>
       <c r="C10" s="48" t="s">
         <v>1508</v>
@@ -45664,32 +45664,32 @@
     <row r="14" spans="1:3">
       <c r="B14" s="102"/>
     </row>
-    <row r="15" spans="1:3" ht="13">
+    <row r="15" spans="1:3">
       <c r="C15" s="48" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="13">
+    <row r="18" spans="3:3">
       <c r="C18" s="48" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="13">
+    <row r="21" spans="3:3">
       <c r="C21" s="48" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="13">
+    <row r="24" spans="3:3">
       <c r="C24" s="48" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="13">
+    <row r="27" spans="3:3">
       <c r="C27" s="48" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="13">
+    <row r="29" spans="3:3">
       <c r="C29" s="48" t="s">
         <v>1503</v>
       </c>
@@ -45708,10 +45708,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45761,7 +45761,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1431</v>
       </c>
@@ -45771,7 +45771,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1430</v>
       </c>
@@ -45790,10 +45790,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45859,7 +45859,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1488</v>
       </c>
@@ -45869,17 +45869,17 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="13">
+    <row r="19" spans="3:3">
       <c r="C19" s="48" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="13">
+    <row r="22" spans="3:3">
       <c r="C22" s="48" t="s">
         <v>1495</v>
       </c>
@@ -45898,10 +45898,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -45954,12 +45954,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13">
+    <row r="8" spans="1:3">
       <c r="C8" s="48" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13">
+    <row r="11" spans="1:3">
       <c r="C11" s="48" t="s">
         <v>1475</v>
       </c>
@@ -45969,7 +45969,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13">
+    <row r="14" spans="1:3">
       <c r="C14" s="48" t="s">
         <v>1476</v>
       </c>
@@ -45979,7 +45979,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="13">
+    <row r="17" spans="3:3">
       <c r="C17" s="48" t="s">
         <v>1477</v>
       </c>
@@ -45989,7 +45989,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="13">
+    <row r="21" spans="3:3">
       <c r="C21" s="48" t="s">
         <v>1478</v>
       </c>
@@ -46008,9 +46008,9 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46075,37 +46075,37 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13">
+    <row r="10" spans="1:3">
       <c r="C10" s="48" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13">
+    <row r="13" spans="1:3">
       <c r="C13" s="48" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13">
+    <row r="16" spans="1:3">
       <c r="C16" s="48" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="13">
+    <row r="20" spans="3:3">
       <c r="C20" s="48" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="13">
+    <row r="23" spans="3:3">
       <c r="C23" s="48" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="13">
+    <row r="26" spans="3:3">
       <c r="C26" s="48" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="13">
+    <row r="30" spans="3:3">
       <c r="C30" s="48" t="s">
         <v>1457</v>
       </c>

--- a/AMGN.xlsx
+++ b/AMGN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6355539-5368-40B0-97CE-8A2DA0F96EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EBBE5-1909-47D1-A961-BD9E3193A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1905" windowWidth="27990" windowHeight="17070" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37455" yWindow="1290" windowWidth="34110" windowHeight="17025" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="75" r:id="rId1"/>
@@ -7575,10 +7575,10 @@
       <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7891,10 +7891,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7953,12 +7953,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="48" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="48" t="s">
         <v>1429</v>
       </c>
@@ -7977,10 +7977,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8033,7 +8033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1420</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1424</v>
       </c>
@@ -8062,10 +8062,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8126,17 +8126,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="48" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="48" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" ht="13">
       <c r="C17" s="48" t="s">
         <v>1490</v>
       </c>
@@ -8155,10 +8155,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8197,7 +8197,7 @@
       <c r="J5" s="101"/>
       <c r="K5" s="101"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="13">
       <c r="C6" s="48" t="s">
         <v>510</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="13">
       <c r="C9" s="48" t="s">
         <v>511</v>
       </c>
@@ -8251,7 +8251,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8296,13 +8296,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="B7" s="102"/>
       <c r="C7" s="48" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="48" t="s">
         <v>1217</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="48" t="s">
         <v>1215</v>
       </c>
@@ -8322,12 +8322,12 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="48" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" ht="13">
       <c r="C18" s="48" t="s">
         <v>1220</v>
       </c>
@@ -8347,12 +8347,12 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" ht="13">
       <c r="C24" s="48" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" ht="13">
       <c r="C27" s="48" t="s">
         <v>1524</v>
       </c>
@@ -8372,11 +8372,11 @@
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8426,7 +8426,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="B8" s="22"/>
       <c r="C8" s="4" t="s">
         <v>58</v>
@@ -8437,7 +8437,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="22" t="s">
         <v>1027</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13">
       <c r="C15" s="22" t="s">
         <v>519</v>
       </c>
@@ -8473,10 +8473,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8521,12 +8521,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="48" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1408</v>
       </c>
@@ -8545,10 +8545,10 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8593,17 +8593,17 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="48" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="48" t="s">
         <v>1515</v>
       </c>
@@ -8622,10 +8622,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8672,22 +8672,22 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="48" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" ht="13">
       <c r="C17" s="48" t="s">
         <v>1523</v>
       </c>
@@ -8706,10 +8706,10 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8754,7 +8754,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="48" t="s">
         <v>1394</v>
       </c>
@@ -8769,12 +8769,12 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="48" t="s">
         <v>1395</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" ht="13">
       <c r="C20" s="48" t="s">
         <v>1391</v>
       </c>
@@ -8825,22 +8825,24 @@
   </sheetPr>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" style="4" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" style="4" customWidth="1"/>
     <col min="11" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12" customHeight="1">
@@ -8895,10 +8897,10 @@
         <v>446</v>
       </c>
       <c r="J3" s="26">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K3" s="107" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8923,7 +8925,7 @@
       </c>
       <c r="J4" s="26">
         <f>J3*J2</f>
-        <v>151760</v>
+        <v>151480</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8947,10 +8949,10 @@
         <v>1010</v>
       </c>
       <c r="J5" s="97">
-        <v>9011</v>
+        <v>8810</v>
       </c>
       <c r="K5" s="107" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8976,10 +8978,10 @@
         <v>1011</v>
       </c>
       <c r="J6" s="26">
-        <v>60398</v>
+        <v>57381</v>
       </c>
       <c r="K6" s="107" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9006,7 +9008,7 @@
       </c>
       <c r="J7" s="26">
         <f>J4-J5+J6</f>
-        <v>203147</v>
+        <v>200051</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9676,7 +9678,7 @@
       </c>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" ht="13">
       <c r="B47" s="64" t="s">
         <v>217</v>
       </c>
@@ -9728,7 +9730,7 @@
       </c>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="2:7" s="23" customFormat="1">
+    <row r="50" spans="2:7" s="23" customFormat="1" ht="13">
       <c r="B50" s="5" t="s">
         <v>67</v>
       </c>
@@ -9877,117 +9879,117 @@
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" ht="13">
       <c r="B60" s="14"/>
       <c r="E60" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" ht="13">
       <c r="B61" s="16"/>
       <c r="E61" s="23" t="s">
         <v>468</v>
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" ht="13">
       <c r="B62" s="16"/>
       <c r="E62" s="23" t="s">
         <v>514</v>
       </c>
       <c r="F62" s="33"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" ht="13">
       <c r="E63" s="23" t="s">
         <v>317</v>
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" ht="13">
       <c r="B64" s="16"/>
       <c r="E64" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" ht="13">
       <c r="E65" s="23" t="s">
         <v>515</v>
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" ht="13">
       <c r="B66" s="14"/>
       <c r="E66" s="23" t="s">
         <v>819</v>
       </c>
       <c r="F66" s="33"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" ht="13">
       <c r="B67" s="14"/>
       <c r="E67" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" ht="13">
       <c r="E68" s="4" t="s">
         <v>883</v>
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" ht="13">
       <c r="E69" s="23" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" ht="13">
       <c r="E70" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" ht="13">
       <c r="E71" s="23" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" ht="13">
       <c r="E72" s="23" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" ht="13">
       <c r="E73" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" ht="13">
       <c r="E74" s="23" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" ht="13">
       <c r="E75" s="23" t="s">
         <v>557</v>
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" ht="13">
       <c r="E76" s="33" t="s">
         <v>886</v>
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" ht="13">
       <c r="E77" s="23" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" ht="13">
       <c r="B78" s="4" t="s">
         <v>415</v>
       </c>
@@ -9996,57 +9998,57 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" ht="13">
       <c r="E79" s="23" t="s">
         <v>887</v>
       </c>
       <c r="F79" s="33"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" ht="13">
       <c r="E80" s="23" t="s">
         <v>481</v>
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="5:6">
+    <row r="81" spans="5:6" ht="13">
       <c r="E81" s="23" t="s">
         <v>480</v>
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="5:6">
+    <row r="82" spans="5:6" ht="13">
       <c r="E82" s="23" t="s">
         <v>726</v>
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="5:6">
+    <row r="83" spans="5:6" ht="13">
       <c r="E83" s="23" t="s">
         <v>616</v>
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="5:6">
+    <row r="84" spans="5:6" ht="13">
       <c r="E84" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="5:6">
+    <row r="85" spans="5:6" ht="13">
       <c r="E85" s="23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="86" spans="5:6">
+    <row r="86" spans="5:6" ht="13">
       <c r="E86" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="5:6">
+    <row r="87" spans="5:6" ht="13">
       <c r="E87" s="23" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="88" spans="5:6">
+    <row r="88" spans="5:6" ht="13">
       <c r="E88" s="23" t="s">
         <v>295</v>
       </c>
@@ -10056,32 +10058,32 @@
         <v>938</v>
       </c>
     </row>
-    <row r="90" spans="5:6">
+    <row r="90" spans="5:6" ht="13">
       <c r="E90" s="23" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="91" spans="5:6">
+    <row r="91" spans="5:6" ht="13">
       <c r="E91" s="23" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="92" spans="5:6">
+    <row r="92" spans="5:6" ht="13">
       <c r="E92" s="23" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="93" spans="5:6">
+    <row r="93" spans="5:6" ht="13">
       <c r="E93" s="23" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="94" spans="5:6">
+    <row r="94" spans="5:6" ht="13">
       <c r="E94" s="23" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="95" spans="5:6">
+    <row r="95" spans="5:6" ht="13">
       <c r="E95" s="23" t="s">
         <v>1061</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="107" spans="5:5">
+    <row r="107" spans="5:5" ht="13">
       <c r="E107" s="23" t="s">
         <v>1385</v>
       </c>
@@ -10191,10 +10193,10 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10247,37 +10249,37 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="48" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="48" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="48" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" ht="13">
       <c r="C18" s="48" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" ht="13">
       <c r="C20" s="48" t="s">
         <v>1469</v>
       </c>
@@ -10296,11 +10298,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10358,7 +10360,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="22" t="s">
         <v>1022</v>
       </c>
@@ -10378,7 +10380,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="22" t="s">
         <v>162</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" ht="13">
       <c r="D19" s="22" t="s">
         <v>306</v>
       </c>
@@ -10398,7 +10400,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" ht="13">
       <c r="D22" s="22" t="s">
         <v>310</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="3:4" ht="13">
       <c r="D25" s="22" t="s">
         <v>853</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:4" ht="13">
       <c r="C28" s="22" t="s">
         <v>856</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:4" ht="13">
       <c r="C31" s="22" t="s">
         <v>858</v>
       </c>
@@ -10441,7 +10443,7 @@
     <row r="33" spans="3:4">
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" ht="13">
       <c r="D34" s="22" t="s">
         <v>185</v>
       </c>
@@ -10451,7 +10453,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:4" ht="13">
       <c r="D37" s="22" t="s">
         <v>734</v>
       </c>
@@ -10464,7 +10466,7 @@
     <row r="39" spans="3:4">
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:4" ht="13">
       <c r="D40" s="22" t="s">
         <v>736</v>
       </c>
@@ -10474,10 +10476,10 @@
         <v>847</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="3:4" ht="13">
       <c r="D42" s="22"/>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" ht="13">
       <c r="C43" s="22" t="s">
         <v>196</v>
       </c>
@@ -10490,7 +10492,7 @@
     <row r="45" spans="3:4">
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:4" ht="13">
       <c r="C46" s="22" t="s">
         <v>198</v>
       </c>
@@ -10500,10 +10502,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:4" ht="13">
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" ht="13">
       <c r="D49" s="22" t="s">
         <v>200</v>
       </c>
@@ -10516,7 +10518,7 @@
     <row r="51" spans="3:4">
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" ht="13">
       <c r="D52" s="22" t="s">
         <v>202</v>
       </c>
@@ -10526,10 +10528,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" ht="13">
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" ht="13">
       <c r="D55" s="22" t="s">
         <v>204</v>
       </c>
@@ -10542,7 +10544,7 @@
     <row r="57" spans="3:4">
       <c r="D57" s="16"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" ht="13">
       <c r="C58" s="22" t="s">
         <v>206</v>
       </c>
@@ -10555,7 +10557,7 @@
     <row r="60" spans="3:4">
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" ht="13">
       <c r="C61" s="22" t="s">
         <v>915</v>
       </c>
@@ -10568,7 +10570,7 @@
     <row r="63" spans="3:4">
       <c r="D63" s="16"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" ht="13">
       <c r="C64" s="22" t="s">
         <v>917</v>
       </c>
@@ -10581,7 +10583,7 @@
     <row r="66" spans="2:4">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" ht="13">
       <c r="C67" s="22" t="s">
         <v>773</v>
       </c>
@@ -10591,18 +10593,18 @@
         <v>774</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" ht="13">
       <c r="B69" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D69" s="22"/>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" ht="13">
       <c r="C71" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" ht="13">
       <c r="C72" s="22" t="s">
         <v>160</v>
       </c>
@@ -10612,7 +10614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" ht="13">
       <c r="C75" s="22" t="s">
         <v>157</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" ht="13">
       <c r="C78" s="22" t="s">
         <v>517</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" ht="13">
       <c r="C81" s="22" t="s">
         <v>388</v>
       </c>
@@ -10642,7 +10644,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" ht="13">
       <c r="C84" s="22" t="s">
         <v>390</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" ht="13">
       <c r="C87" s="22" t="s">
         <v>155</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" ht="13">
       <c r="C90" s="22" t="s">
         <v>251</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" ht="13">
       <c r="C93" s="22" t="s">
         <v>359</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" ht="13">
       <c r="C96" s="22" t="s">
         <v>361</v>
       </c>
@@ -10692,7 +10694,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" ht="13">
       <c r="C99" s="22" t="s">
         <v>0</v>
       </c>
@@ -10702,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" ht="13">
       <c r="C102" s="22" t="s">
         <v>771</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" ht="13">
       <c r="C105" s="22" t="s">
         <v>775</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" ht="13">
       <c r="C108" s="22" t="s">
         <v>777</v>
       </c>
@@ -10749,11 +10751,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10938,10 +10940,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10957,12 +10959,12 @@
     <row r="3" spans="1:3">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="13">
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="14" t="s">
         <v>296</v>
       </c>
@@ -10972,17 +10974,17 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="13">
       <c r="C7" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="14" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="C9" s="14" t="s">
         <v>615</v>
       </c>
@@ -10997,7 +10999,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="13">
       <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
@@ -11125,268 +11127,268 @@
     <row r="35" spans="2:2">
       <c r="B35" s="55"/>
     </row>
-    <row r="36" spans="2:2" ht="13.5">
+    <row r="36" spans="2:2" ht="13">
       <c r="B36" s="56" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="13.5">
+    <row r="37" spans="2:2" ht="13">
       <c r="B37" s="56"/>
     </row>
-    <row r="38" spans="2:2" ht="13.5">
+    <row r="38" spans="2:2" ht="13">
       <c r="B38" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="13.5">
+    <row r="39" spans="2:2" ht="13">
       <c r="B39" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="13.5">
+    <row r="40" spans="2:2" ht="13">
       <c r="B40" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="13.5">
+    <row r="41" spans="2:2" ht="13">
       <c r="B41" s="56"/>
     </row>
-    <row r="42" spans="2:2" ht="13.5">
+    <row r="42" spans="2:2" ht="13">
       <c r="B42" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="13.5">
+    <row r="43" spans="2:2" ht="13">
       <c r="B43" s="56" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="13.5">
+    <row r="44" spans="2:2" ht="13">
       <c r="B44" s="56" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="13.5">
+    <row r="45" spans="2:2" ht="13">
       <c r="B45" s="56" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="13.5">
+    <row r="46" spans="2:2" ht="13">
       <c r="B46" s="56" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="47" spans="2:2" ht="13.5">
+    <row r="47" spans="2:2" ht="13">
       <c r="B47" s="56" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="13.5">
+    <row r="48" spans="2:2" ht="13">
       <c r="B48" s="56" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="13.5">
+    <row r="49" spans="2:2" ht="13">
       <c r="B49" s="56" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="13.5">
+    <row r="50" spans="2:2" ht="13">
       <c r="B50" s="56"/>
     </row>
-    <row r="51" spans="2:2" ht="13.5">
+    <row r="51" spans="2:2" ht="13">
       <c r="B51" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="13.5">
+    <row r="52" spans="2:2" ht="13">
       <c r="B52" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="13.5">
+    <row r="53" spans="2:2" ht="13">
       <c r="B53" s="56" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="13.5">
+    <row r="54" spans="2:2" ht="13">
       <c r="B54" s="56" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="13.5">
+    <row r="55" spans="2:2" ht="13">
       <c r="B55" s="56" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="13.5">
+    <row r="56" spans="2:2" ht="13">
       <c r="B56" s="56" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="13.5">
+    <row r="57" spans="2:2" ht="13">
       <c r="B57" s="56" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="13.5">
+    <row r="58" spans="2:2" ht="13">
       <c r="B58" s="56" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="13.5">
+    <row r="59" spans="2:2" ht="13">
       <c r="B59" s="56"/>
     </row>
-    <row r="60" spans="2:2" ht="13.5">
+    <row r="60" spans="2:2" ht="13">
       <c r="B60" s="56" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="13.5">
+    <row r="61" spans="2:2" ht="13">
       <c r="B61" s="56" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="13.5">
+    <row r="62" spans="2:2" ht="13">
       <c r="B62" s="56"/>
     </row>
-    <row r="63" spans="2:2" ht="13.5">
+    <row r="63" spans="2:2" ht="13">
       <c r="B63" s="56" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="13.5">
+    <row r="64" spans="2:2" ht="13">
       <c r="B64" s="56" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="13.5">
+    <row r="65" spans="2:2" ht="13">
       <c r="B65" s="56" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="13.5">
+    <row r="66" spans="2:2" ht="13">
       <c r="B66" s="56" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="13.5">
+    <row r="67" spans="2:2" ht="13">
       <c r="B67" s="56" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="13.5">
+    <row r="68" spans="2:2" ht="13">
       <c r="B68" s="56" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="13.5">
+    <row r="69" spans="2:2" ht="13">
       <c r="B69" s="56" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="13.5">
+    <row r="70" spans="2:2" ht="13">
       <c r="B70" s="56" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="13.5">
+    <row r="71" spans="2:2" ht="13">
       <c r="B71" s="56" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="13.5">
+    <row r="72" spans="2:2" ht="13">
       <c r="B72" s="56" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="13.5">
+    <row r="73" spans="2:2" ht="13">
       <c r="B73" s="56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="13.5">
+    <row r="74" spans="2:2" ht="13">
       <c r="B74" s="56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="13.5">
+    <row r="75" spans="2:2" ht="13">
       <c r="B75" s="56" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="13.5">
+    <row r="76" spans="2:2" ht="13">
       <c r="B76" s="56" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="13.5">
+    <row r="77" spans="2:2" ht="13">
       <c r="B77" s="56" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="13.5">
+    <row r="78" spans="2:2" ht="13">
       <c r="B78" s="56" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="13.5">
+    <row r="79" spans="2:2" ht="13">
       <c r="B79" s="56" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="13.5">
+    <row r="80" spans="2:2" ht="13">
       <c r="B80" s="56" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="13.5">
+    <row r="81" spans="2:2" ht="13">
       <c r="B81" s="56"/>
     </row>
-    <row r="82" spans="2:2" ht="13.5">
+    <row r="82" spans="2:2" ht="13">
       <c r="B82" s="56" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="13.5">
+    <row r="83" spans="2:2" ht="13">
       <c r="B83" s="56" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="13.5">
+    <row r="84" spans="2:2" ht="13">
       <c r="B84" s="56" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="13.5">
+    <row r="85" spans="2:2" ht="13">
       <c r="B85" s="56" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="13.5">
+    <row r="86" spans="2:2" ht="13">
       <c r="B86" s="56" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="13.5">
+    <row r="87" spans="2:2" ht="13">
       <c r="B87" s="56" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="13.5">
+    <row r="88" spans="2:2" ht="13">
       <c r="B88" s="56" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="13.5">
+    <row r="89" spans="2:2" ht="13">
       <c r="B89" s="56"/>
     </row>
-    <row r="90" spans="2:2" ht="13.5">
+    <row r="90" spans="2:2" ht="13">
       <c r="B90" s="56" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="13.5">
+    <row r="91" spans="2:2" ht="13">
       <c r="B91" s="56" t="s">
         <v>704</v>
       </c>
@@ -11434,13 +11436,13 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="14.26953125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11654,7 +11656,7 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" ht="13">
       <c r="C30" s="22" t="s">
         <v>142</v>
       </c>
@@ -11681,7 +11683,7 @@
     <row r="34" spans="3:4">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:4" ht="13">
       <c r="C35" s="22" t="s">
         <v>143</v>
       </c>
@@ -11699,7 +11701,7 @@
     <row r="38" spans="3:4">
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="3:4" ht="13">
       <c r="C39" s="22" t="s">
         <v>465</v>
       </c>
@@ -11717,7 +11719,7 @@
     <row r="42" spans="3:4">
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" ht="13">
       <c r="C43" s="22" t="s">
         <v>138</v>
       </c>
@@ -11731,7 +11733,7 @@
     <row r="45" spans="3:4">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:4" ht="13">
       <c r="C46" s="22" t="s">
         <v>392</v>
       </c>
@@ -11752,7 +11754,7 @@
     <row r="49" spans="3:4">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" ht="13">
       <c r="C50" s="22" t="s">
         <v>128</v>
       </c>
@@ -11810,7 +11812,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" ht="13">
       <c r="C61" s="22" t="s">
         <v>989</v>
       </c>
@@ -11835,7 +11837,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" ht="13">
       <c r="C67" s="22" t="s">
         <v>622</v>
       </c>
@@ -11845,7 +11847,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" ht="13">
       <c r="C70" s="22" t="s">
         <v>624</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" ht="13">
       <c r="C73" s="22" t="s">
         <v>553</v>
       </c>
@@ -11868,7 +11870,7 @@
     <row r="75" spans="3:3">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" ht="13">
       <c r="C76" s="28" t="s">
         <v>71</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" ht="13">
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
@@ -12080,7 +12082,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" ht="13">
       <c r="C119" s="22" t="s">
         <v>862</v>
       </c>
@@ -12105,7 +12107,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" ht="13">
       <c r="C125" s="22" t="s">
         <v>868</v>
       </c>
@@ -12125,7 +12127,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" ht="13">
       <c r="C130" s="22" t="s">
         <v>942</v>
       </c>
@@ -12140,7 +12142,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" ht="13">
       <c r="C134" s="22" t="s">
         <v>136</v>
       </c>
@@ -12175,7 +12177,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" ht="13">
       <c r="C144" s="22" t="s">
         <v>686</v>
       </c>
@@ -12205,7 +12207,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" ht="13">
       <c r="C151" s="14" t="s">
         <v>227</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="3:3" ht="13">
       <c r="C160" s="22" t="s">
         <v>526</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" ht="13">
       <c r="C164" s="22" t="s">
         <v>140</v>
       </c>
@@ -12260,10 +12262,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" ht="13">
       <c r="C166" s="22"/>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" ht="13">
       <c r="C168" s="22" t="s">
         <v>325</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" ht="13">
       <c r="C172" s="22" t="s">
         <v>930</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" ht="13">
       <c r="C177" s="22" t="s">
         <v>934</v>
       </c>
@@ -12313,7 +12315,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="181" spans="3:3">
+    <row r="181" spans="3:3" ht="13">
       <c r="C181" s="22" t="s">
         <v>244</v>
       </c>
@@ -12328,7 +12330,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="3:3">
+    <row r="185" spans="3:3" ht="13">
       <c r="C185" s="22" t="s">
         <v>240</v>
       </c>
@@ -12338,17 +12340,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="3:3">
+    <row r="188" spans="3:3" ht="13">
       <c r="C188" s="22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
+    <row r="191" spans="3:3" ht="13">
       <c r="C191" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="194" spans="3:3">
+    <row r="194" spans="3:3" ht="13">
       <c r="C194" s="22" t="s">
         <v>1004</v>
       </c>
@@ -12368,7 +12370,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
+    <row r="200" spans="3:3" ht="13">
       <c r="C200" s="22" t="s">
         <v>1070</v>
       </c>
@@ -12403,9 +12405,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -12478,7 +12480,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" ht="13.5">
       <c r="B15" s="21" t="s">
         <v>1000</v>
       </c>
@@ -12535,11 +12537,11 @@
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12652,7 +12654,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" ht="13">
       <c r="C18" s="22" t="s">
         <v>633</v>
       </c>
@@ -12694,11 +12696,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="16.453125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -12792,7 +12794,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13">
       <c r="C15" s="22" t="s">
         <v>712</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" ht="13">
       <c r="C18" s="22" t="s">
         <v>715</v>
       </c>
@@ -12812,7 +12814,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="22" t="s">
         <v>716</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" ht="13">
       <c r="C24" s="22" t="s">
         <v>912</v>
       </c>
@@ -12832,7 +12834,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" ht="13">
       <c r="C27" s="28" t="s">
         <v>825</v>
       </c>
@@ -12887,7 +12889,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" ht="13">
       <c r="C39" s="22" t="s">
         <v>189</v>
       </c>
@@ -12907,7 +12909,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" ht="13">
       <c r="C44" s="22" t="s">
         <v>190</v>
       </c>
@@ -12943,15 +12945,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="4"/>
-    <col min="10" max="10" width="22.28515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="5" max="9" width="9.1796875" style="4"/>
+    <col min="10" max="10" width="22.26953125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13058,7 +13060,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="13">
       <c r="B16" s="22" t="s">
         <v>1032</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" ht="13">
       <c r="B19" s="14" t="s">
         <v>1036</v>
       </c>
@@ -13088,7 +13090,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" ht="13">
       <c r="B22" s="14" t="s">
         <v>947</v>
       </c>
@@ -13098,7 +13100,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" ht="13">
       <c r="B24" s="51" t="s">
         <v>499</v>
       </c>
@@ -13120,7 +13122,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" ht="13">
       <c r="B26" s="22" t="s">
         <v>1035</v>
       </c>
@@ -13142,7 +13144,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="13.5" thickBot="1">
+    <row r="28" spans="2:16" ht="13" thickBot="1">
       <c r="B28" s="27" t="s">
         <v>588</v>
       </c>
@@ -13187,7 +13189,7 @@
       </c>
       <c r="P31" s="40"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" ht="13">
       <c r="B32" s="22" t="s">
         <v>1053</v>
       </c>
@@ -13249,7 +13251,7 @@
       </c>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" ht="13">
       <c r="B36" s="22" t="s">
         <v>905</v>
       </c>
@@ -13300,7 +13302,7 @@
       </c>
       <c r="P38" s="40"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" ht="13">
       <c r="B39" s="22" t="s">
         <v>1016</v>
       </c>
@@ -13318,7 +13320,7 @@
       </c>
       <c r="P39" s="40"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" ht="13">
       <c r="B40" s="22"/>
       <c r="K40" s="39" t="s">
         <v>583</v>
@@ -13334,7 +13336,7 @@
       </c>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" ht="13">
       <c r="B41" s="22" t="s">
         <v>1015</v>
       </c>
@@ -13355,13 +13357,13 @@
     <row r="42" spans="2:16">
       <c r="P42" s="40"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" ht="13">
       <c r="B43" s="22" t="s">
         <v>111</v>
       </c>
       <c r="P43" s="40"/>
     </row>
-    <row r="44" spans="2:16" ht="13.5" thickBot="1">
+    <row r="44" spans="2:16" ht="13" thickBot="1">
       <c r="B44" s="4" t="s">
         <v>106</v>
       </c>
@@ -13372,7 +13374,7 @@
       <c r="O44" s="42"/>
       <c r="P44" s="43"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" ht="13">
       <c r="B46" s="22" t="s">
         <v>1054</v>
       </c>
@@ -13385,7 +13387,7 @@
     <row r="48" spans="2:16">
       <c r="B48" s="16"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" ht="13">
       <c r="B49" s="22" t="s">
         <v>1020</v>
       </c>
@@ -13416,7 +13418,7 @@
         <v>10387</v>
       </c>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" ht="13">
       <c r="B52" s="22" t="s">
         <v>1020</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" ht="13">
       <c r="B55" s="22" t="s">
         <v>1017</v>
       </c>
@@ -13441,12 +13443,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" ht="13">
       <c r="B58" s="14" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" ht="13">
       <c r="B59" s="14" t="s">
         <v>1018</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" ht="13">
       <c r="B63" s="22" t="s">
         <v>1019</v>
       </c>
@@ -13476,17 +13478,17 @@
         <v>668</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" ht="13">
       <c r="B69" s="22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" ht="13">
       <c r="B71" s="22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" ht="13">
       <c r="B73" s="22" t="s">
         <v>115</v>
       </c>
@@ -13523,17 +13525,17 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="8.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13697,7 +13699,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" ht="13">
       <c r="C24" s="22" t="s">
         <v>1078</v>
       </c>
@@ -13727,7 +13729,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" ht="13">
       <c r="C30" s="22" t="s">
         <v>168</v>
       </c>
@@ -13742,7 +13744,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" ht="13">
       <c r="C34" s="22" t="s">
         <v>617</v>
       </c>
@@ -13752,12 +13754,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" ht="13">
       <c r="C37" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" ht="13">
       <c r="C38" s="14" t="s">
         <v>1029</v>
       </c>
@@ -13777,7 +13779,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" ht="13">
       <c r="C43" s="22" t="s">
         <v>986</v>
       </c>
@@ -13802,7 +13804,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="49" spans="3:9">
+    <row r="49" spans="3:9" ht="13">
       <c r="C49" s="22" t="s">
         <v>46</v>
       </c>
@@ -13817,7 +13819,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="3:9" ht="13">
       <c r="C53" s="22" t="s">
         <v>661</v>
       </c>
@@ -13863,7 +13865,7 @@
       <c r="D58" s="4"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="3:9">
+    <row r="59" spans="3:9" ht="13">
       <c r="C59" s="22" t="s">
         <v>419</v>
       </c>
@@ -13877,14 +13879,14 @@
       <c r="D60" s="4"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="3:9">
+    <row r="61" spans="3:9" ht="13">
       <c r="C61" s="14" t="s">
         <v>449</v>
       </c>
       <c r="D61" s="4"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="63" spans="3:9">
+    <row r="63" spans="3:9" ht="13">
       <c r="C63" s="22" t="s">
         <v>1095</v>
       </c>
@@ -13894,7 +13896,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="3:13">
+    <row r="66" spans="3:13" ht="13">
       <c r="C66" s="22" t="s">
         <v>1096</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="70" spans="3:13">
+    <row r="70" spans="3:13" ht="13">
       <c r="C70" s="22" t="s">
         <v>1074</v>
       </c>
@@ -13927,7 +13929,7 @@
       </c>
       <c r="M72" s="69"/>
     </row>
-    <row r="73" spans="3:13">
+    <row r="73" spans="3:13" ht="13">
       <c r="C73" s="14" t="s">
         <v>1084</v>
       </c>
@@ -13942,7 +13944,7 @@
     <row r="75" spans="3:13">
       <c r="M75" s="69"/>
     </row>
-    <row r="76" spans="3:13">
+    <row r="76" spans="3:13" ht="13">
       <c r="C76" s="22" t="s">
         <v>621</v>
       </c>
@@ -13968,7 +13970,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" ht="13">
       <c r="C83" s="23" t="s">
         <v>195</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" ht="13">
       <c r="C87" s="22" t="s">
         <v>44</v>
       </c>
@@ -13998,7 +14000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" ht="13">
       <c r="C91" s="22" t="s">
         <v>78</v>
       </c>
@@ -14008,7 +14010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" ht="13">
       <c r="C95" s="22" t="s">
         <v>1066</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" ht="13">
       <c r="C98" s="22" t="s">
         <v>333</v>
       </c>
@@ -14032,7 +14034,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" ht="13">
       <c r="C101" s="22" t="s">
         <v>1099</v>
       </c>
@@ -14060,32 +14062,32 @@
   </sheetPr>
   <dimension ref="A1:HB241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BJ84" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CH46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BO107" sqref="BO107"/>
+      <selection pane="bottomRight" activeCell="CU75" sqref="CU75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="6.85546875" style="71" customWidth="1"/>
-    <col min="15" max="22" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="29" max="38" width="7.42578125" style="71" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="40" max="90" width="7.28515625" style="71" customWidth="1"/>
-    <col min="91" max="98" width="7.28515625" style="114" customWidth="1"/>
-    <col min="99" max="99" width="7.7109375" style="114" customWidth="1"/>
-    <col min="100" max="103" width="7.28515625" style="114" customWidth="1"/>
-    <col min="104" max="104" width="9.140625" style="71"/>
-    <col min="105" max="121" width="7.28515625" style="71" customWidth="1"/>
-    <col min="122" max="129" width="6.85546875" style="71" customWidth="1"/>
-    <col min="130" max="135" width="8.42578125" style="71" customWidth="1"/>
-    <col min="136" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="6.81640625" style="71" customWidth="1"/>
+    <col min="15" max="22" width="7.453125" style="71" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.26953125" style="71" bestFit="1" customWidth="1"/>
+    <col min="29" max="38" width="7.453125" style="71" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.81640625" style="71" bestFit="1" customWidth="1"/>
+    <col min="40" max="90" width="7.26953125" style="71" customWidth="1"/>
+    <col min="91" max="98" width="7.26953125" style="114" customWidth="1"/>
+    <col min="99" max="99" width="7.7265625" style="114" customWidth="1"/>
+    <col min="100" max="103" width="7.26953125" style="114" customWidth="1"/>
+    <col min="104" max="104" width="9.1796875" style="71"/>
+    <col min="105" max="121" width="7.26953125" style="71" customWidth="1"/>
+    <col min="122" max="129" width="6.81640625" style="71" customWidth="1"/>
+    <col min="130" max="135" width="8.453125" style="71" customWidth="1"/>
+    <col min="136" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:140">
@@ -25821,7 +25823,7 @@
         <v>468.97250193450014</v>
       </c>
     </row>
-    <row r="43" spans="2:140" s="15" customFormat="1">
+    <row r="43" spans="2:140" s="15" customFormat="1" ht="13">
       <c r="B43" s="32" t="s">
         <v>442</v>
       </c>
@@ -26110,7 +26112,7 @@
         <v>5904</v>
       </c>
       <c r="BV43" s="75">
-        <f t="shared" ref="BV43:DA43" si="126">SUM(BV3:BV42)</f>
+        <f t="shared" ref="BV43:CX43" si="126">SUM(BV3:BV42)</f>
         <v>6230</v>
       </c>
       <c r="BW43" s="75">
@@ -31599,7 +31601,7 @@
         <v>4074.0842666416806</v>
       </c>
     </row>
-    <row r="54" spans="2:210" s="61" customFormat="1">
+    <row r="54" spans="2:210" s="61" customFormat="1" ht="13">
       <c r="B54" s="91" t="s">
         <v>447</v>
       </c>
@@ -32585,7 +32587,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="2:210" s="19" customFormat="1">
+    <row r="57" spans="2:210" s="19" customFormat="1" ht="13">
       <c r="B57" s="38" t="s">
         <v>101</v>
       </c>
@@ -33103,7 +33105,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="58" spans="2:210" s="30" customFormat="1">
+    <row r="58" spans="2:210" s="30" customFormat="1" ht="13">
       <c r="B58" s="30" t="s">
         <v>282</v>
       </c>
@@ -33632,7 +33634,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="2:210" s="30" customFormat="1">
+    <row r="59" spans="2:210" s="30" customFormat="1" ht="13">
       <c r="B59" s="30" t="s">
         <v>283</v>
       </c>
@@ -34150,10 +34152,10 @@
       </c>
       <c r="EM59" s="67">
         <f>NPV($EM$58,EA53:GT53)+Main!J5-Main!J6+DZ53</f>
-        <v>157544.20873609462</v>
-      </c>
-    </row>
-    <row r="60" spans="2:210" s="30" customFormat="1">
+        <v>160360.20873609462</v>
+      </c>
+    </row>
+    <row r="60" spans="2:210" s="30" customFormat="1" ht="13">
       <c r="B60" s="30" t="s">
         <v>974</v>
       </c>
@@ -34682,10 +34684,10 @@
       <c r="EL60" s="82"/>
       <c r="EM60" s="63">
         <f>EM59/Main!J3</f>
-        <v>290.67197183781292</v>
-      </c>
-    </row>
-    <row r="61" spans="2:210" s="30" customFormat="1">
+        <v>296.41443389296603</v>
+      </c>
+    </row>
+    <row r="61" spans="2:210" s="30" customFormat="1" ht="13">
       <c r="B61" s="30" t="s">
         <v>975</v>
       </c>
@@ -35212,7 +35214,7 @@
         <v>0.61091383693626</v>
       </c>
     </row>
-    <row r="62" spans="2:210" s="38" customFormat="1">
+    <row r="62" spans="2:210" s="38" customFormat="1" ht="13">
       <c r="B62" s="38" t="s">
         <v>445</v>
       </c>
@@ -35738,7 +35740,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="2:210" s="30" customFormat="1">
+    <row r="63" spans="2:210" s="30" customFormat="1" ht="13">
       <c r="C63" s="82"/>
       <c r="D63" s="82"/>
       <c r="E63" s="82"/>
@@ -35873,7 +35875,7 @@
       <c r="ED63" s="82"/>
       <c r="EE63" s="82"/>
     </row>
-    <row r="64" spans="2:210" s="31" customFormat="1">
+    <row r="64" spans="2:210" s="31" customFormat="1" ht="13">
       <c r="B64" s="35" t="s">
         <v>281</v>
       </c>
@@ -36409,7 +36411,7 @@
         <v>-0.1999971013433326</v>
       </c>
     </row>
-    <row r="65" spans="2:145" s="31" customFormat="1">
+    <row r="65" spans="2:145" s="31" customFormat="1" ht="13">
       <c r="B65" s="35" t="s">
         <v>1352</v>
       </c>
@@ -36552,7 +36554,7 @@
       <c r="EI65" s="121"/>
       <c r="EJ65" s="121"/>
     </row>
-    <row r="66" spans="2:145" s="15" customFormat="1">
+    <row r="66" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B66" s="30" t="s">
         <v>719</v>
       </c>
@@ -36842,7 +36844,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="67" spans="2:145" s="15" customFormat="1">
+    <row r="67" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B67" s="30" t="s">
         <v>721</v>
       </c>
@@ -36988,7 +36990,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="68" spans="2:145" s="15" customFormat="1">
+    <row r="68" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B68" s="30" t="s">
         <v>1118</v>
       </c>
@@ -37163,7 +37165,7 @@
         <v>0.1442622950819672</v>
       </c>
       <c r="BY68" s="86">
-        <f t="shared" ref="BY68:DD68" si="457">+BY19/BU19-1</f>
+        <f t="shared" ref="BY68:CU68" si="457">+BY19/BU19-1</f>
         <v>0.18421052631578938</v>
       </c>
       <c r="BZ68" s="86">
@@ -37299,7 +37301,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="69" spans="2:145" s="15" customFormat="1">
+    <row r="69" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B69" s="30" t="s">
         <v>1126</v>
       </c>
@@ -37475,7 +37477,7 @@
         <v>9.9307159353348773E-2</v>
       </c>
       <c r="BZ69" s="86">
-        <f t="shared" ref="BZ69:DE69" si="459">+BZ20/BV20-1</f>
+        <f t="shared" ref="BZ69:CU69" si="459">+BZ20/BV20-1</f>
         <v>7.2368421052631637E-2</v>
       </c>
       <c r="CA69" s="86">
@@ -37607,7 +37609,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="70" spans="2:145" s="15" customFormat="1">
+    <row r="70" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B70" s="30" t="s">
         <v>284</v>
       </c>
@@ -38047,7 +38049,7 @@
       <c r="EI70" s="125"/>
       <c r="EJ70" s="125"/>
     </row>
-    <row r="71" spans="2:145" s="30" customFormat="1">
+    <row r="71" spans="2:145" s="30" customFormat="1" ht="13">
       <c r="B71" s="30" t="s">
         <v>720</v>
       </c>
@@ -38487,7 +38489,7 @@
       <c r="EI71" s="125"/>
       <c r="EJ71" s="125"/>
     </row>
-    <row r="72" spans="2:145" s="31" customFormat="1">
+    <row r="72" spans="2:145" s="31" customFormat="1" ht="13">
       <c r="B72" s="35" t="s">
         <v>314</v>
       </c>
@@ -39732,7 +39734,7 @@
       </c>
       <c r="CZ77" s="125"/>
     </row>
-    <row r="78" spans="2:145" s="14" customFormat="1">
+    <row r="78" spans="2:145" s="14" customFormat="1" ht="13">
       <c r="B78" s="14" t="s">
         <v>370</v>
       </c>
@@ -44695,7 +44697,7 @@
       <c r="CK132" s="114"/>
       <c r="CL132" s="114"/>
     </row>
-    <row r="133" spans="2:110">
+    <row r="133" spans="2:110" ht="13">
       <c r="B133" s="14" t="s">
         <v>1006</v>
       </c>
@@ -44849,7 +44851,7 @@
       <c r="CK134" s="114"/>
       <c r="CL134" s="114"/>
     </row>
-    <row r="135" spans="2:110">
+    <row r="135" spans="2:110" ht="13">
       <c r="B135" s="4" t="s">
         <v>1008</v>
       </c>
@@ -44917,7 +44919,7 @@
       <c r="CK135" s="114"/>
       <c r="CL135" s="114"/>
     </row>
-    <row r="136" spans="2:110">
+    <row r="136" spans="2:110" ht="13">
       <c r="B136" s="4" t="s">
         <v>182</v>
       </c>
@@ -45131,7 +45133,7 @@
       <c r="CK138" s="114"/>
       <c r="CL138" s="114"/>
     </row>
-    <row r="139" spans="2:110">
+    <row r="139" spans="2:110" ht="13">
       <c r="B139" s="4" t="s">
         <v>183</v>
       </c>
@@ -45285,7 +45287,7 @@
       <c r="CK140" s="114"/>
       <c r="CL140" s="114"/>
     </row>
-    <row r="141" spans="2:110">
+    <row r="141" spans="2:110" ht="13">
       <c r="B141" s="4" t="s">
         <v>643</v>
       </c>
@@ -45354,7 +45356,7 @@
       <c r="CK141" s="114"/>
       <c r="CL141" s="114"/>
     </row>
-    <row r="142" spans="2:110">
+    <row r="142" spans="2:110" ht="13">
       <c r="B142" s="4" t="s">
         <v>644</v>
       </c>
@@ -45508,7 +45510,7 @@
       <c r="CK143" s="114"/>
       <c r="CL143" s="114"/>
     </row>
-    <row r="144" spans="2:110">
+    <row r="144" spans="2:110" ht="13">
       <c r="B144" s="4" t="s">
         <v>649</v>
       </c>
@@ -45568,7 +45570,7 @@
       <c r="CK144" s="114"/>
       <c r="CL144" s="114"/>
     </row>
-    <row r="145" spans="2:90">
+    <row r="145" spans="2:90" ht="13">
       <c r="B145" s="4" t="s">
         <v>650</v>
       </c>
@@ -45722,7 +45724,7 @@
       <c r="CK146" s="114"/>
       <c r="CL146" s="114"/>
     </row>
-    <row r="147" spans="2:90">
+    <row r="147" spans="2:90" ht="13">
       <c r="B147" s="4" t="s">
         <v>743</v>
       </c>
@@ -46306,7 +46308,7 @@
       <c r="ED164" s="67"/>
       <c r="EE164" s="67"/>
     </row>
-    <row r="165" spans="2:145" s="32" customFormat="1">
+    <row r="165" spans="2:145" s="32" customFormat="1" ht="13">
       <c r="B165" s="32" t="s">
         <v>442</v>
       </c>
@@ -46483,7 +46485,7 @@
       <c r="CK170" s="114"/>
       <c r="CL170" s="114"/>
     </row>
-    <row r="171" spans="2:145" s="37" customFormat="1">
+    <row r="171" spans="2:145" s="37" customFormat="1" ht="13">
       <c r="B171" s="30" t="s">
         <v>177</v>
       </c>
@@ -46777,7 +46779,7 @@
       <c r="ED171" s="99"/>
       <c r="EE171" s="99"/>
     </row>
-    <row r="172" spans="2:145" s="15" customFormat="1">
+    <row r="172" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B172" s="30" t="s">
         <v>176</v>
       </c>
@@ -47079,7 +47081,7 @@
       <c r="ED172" s="72"/>
       <c r="EE172" s="72"/>
     </row>
-    <row r="173" spans="2:145" s="15" customFormat="1">
+    <row r="173" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B173" s="30" t="s">
         <v>437</v>
       </c>
@@ -47352,7 +47354,7 @@
       <c r="ED173" s="72"/>
       <c r="EE173" s="72"/>
     </row>
-    <row r="174" spans="2:145" s="15" customFormat="1">
+    <row r="174" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B174" s="30" t="s">
         <v>178</v>
       </c>
@@ -47661,7 +47663,7 @@
       <c r="ED174" s="72"/>
       <c r="EE174" s="72"/>
     </row>
-    <row r="175" spans="2:145" s="15" customFormat="1">
+    <row r="175" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B175" s="30" t="s">
         <v>27</v>
       </c>
@@ -47902,7 +47904,7 @@
       <c r="EC175" s="72"/>
       <c r="EE175" s="72"/>
     </row>
-    <row r="176" spans="2:145" s="15" customFormat="1">
+    <row r="176" spans="2:145" s="15" customFormat="1" ht="13">
       <c r="B176" s="30" t="s">
         <v>944</v>
       </c>
@@ -48076,7 +48078,7 @@
     <row r="180" spans="4:90">
       <c r="D180" s="90">
         <f>EM59/Main!J3</f>
-        <v>290.67197183781292</v>
+        <v>296.41443389296603</v>
       </c>
       <c r="CI180" s="114"/>
       <c r="CJ180" s="114"/>
@@ -48471,7 +48473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
@@ -48483,7 +48485,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="13">
       <c r="B8" s="22" t="s">
         <v>732</v>
       </c>
@@ -48619,11 +48621,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -48671,10 +48673,10 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -48708,7 +48710,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13">
       <c r="C6" s="48" t="s">
         <v>1529</v>
       </c>
@@ -48730,11 +48732,11 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -48797,7 +48799,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="22" t="s">
         <v>709</v>
       </c>
@@ -48810,7 +48812,7 @@
     <row r="12" spans="1:3">
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="22" t="s">
         <v>809</v>
       </c>
@@ -48840,7 +48842,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="3:4" ht="13">
       <c r="C20" s="22" t="s">
         <v>516</v>
       </c>
@@ -48850,10 +48852,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="3:4" ht="13">
       <c r="C22" s="14"/>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="3:4" ht="13">
       <c r="C23" s="22" t="s">
         <v>710</v>
       </c>
@@ -48866,7 +48868,7 @@
     <row r="25" spans="3:4">
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="3:4" ht="13">
       <c r="C26" s="28" t="s">
         <v>846</v>
       </c>
@@ -48939,7 +48941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:4" ht="13">
       <c r="C38" s="22" t="s">
         <v>889</v>
       </c>
@@ -48949,7 +48951,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:4" ht="13">
       <c r="C41" s="22" t="s">
         <v>637</v>
       </c>
@@ -48959,7 +48961,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:4" ht="13">
       <c r="C43" s="14"/>
     </row>
     <row r="44" spans="3:4">
@@ -48980,12 +48982,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:4" ht="13">
       <c r="C48" s="14" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" ht="13">
       <c r="C49" s="14"/>
     </row>
     <row r="50" spans="3:4">
@@ -49003,7 +49005,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" ht="13">
       <c r="C54" s="22" t="s">
         <v>903</v>
       </c>
@@ -49066,7 +49068,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -49091,7 +49093,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -49137,10 +49139,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49166,7 +49168,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="48" t="s">
         <v>852</v>
       </c>
@@ -49187,10 +49189,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49219,7 +49221,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="48" t="s">
         <v>1101</v>
       </c>
@@ -49235,7 +49237,7 @@
     <row r="8" spans="1:3">
       <c r="C8" s="53"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>922</v>
       </c>
@@ -49256,10 +49258,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -49416,12 +49418,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" ht="13">
       <c r="C32" s="48" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" ht="13">
       <c r="C35" s="48" t="s">
         <v>1103</v>
       </c>
@@ -49443,11 +49445,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49484,7 +49486,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="22" t="s">
         <v>662</v>
       </c>
@@ -49510,10 +49512,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49566,12 +49568,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1414</v>
       </c>
@@ -49590,7 +49592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -49625,13 +49627,13 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="B5" s="53" t="s">
         <v>322</v>
       </c>
       <c r="C5" s="48"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13">
       <c r="B6" s="53"/>
       <c r="C6" s="48" t="s">
         <v>1063</v>
@@ -49643,15 +49645,15 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="B8" s="53"/>
       <c r="C8" s="48"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="13">
       <c r="B9" s="53"/>
       <c r="C9" s="48"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1058</v>
       </c>
@@ -49675,7 +49677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -49699,7 +49701,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="13">
       <c r="C4" s="48" t="s">
         <v>688</v>
       </c>
@@ -49725,10 +49727,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49757,7 +49759,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="48" t="s">
         <v>926</v>
       </c>
@@ -49780,10 +49782,10 @@
       <selection sqref="A1:IV65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49812,7 +49814,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="13">
       <c r="C5" s="48" t="s">
         <v>920</v>
       </c>
@@ -49833,10 +49835,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -49892,7 +49894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
@@ -50005,11 +50007,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50137,10 +50139,10 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50206,7 +50208,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="B10" s="102"/>
       <c r="C10" s="48" t="s">
         <v>1508</v>
@@ -50227,32 +50229,32 @@
     <row r="14" spans="1:3">
       <c r="B14" s="102"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="13">
       <c r="C15" s="48" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" ht="13">
       <c r="C18" s="48" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="48" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" ht="13">
       <c r="C24" s="48" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" ht="13">
       <c r="C27" s="48" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" ht="13">
       <c r="C29" s="48" t="s">
         <v>1503</v>
       </c>
@@ -50271,10 +50273,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50324,7 +50326,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1431</v>
       </c>
@@ -50334,7 +50336,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1430</v>
       </c>
@@ -50353,10 +50355,10 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50422,7 +50424,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1488</v>
       </c>
@@ -50432,17 +50434,17 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="48" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" ht="13">
       <c r="C19" s="48" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" ht="13">
       <c r="C22" s="48" t="s">
         <v>1495</v>
       </c>
@@ -50461,10 +50463,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50517,12 +50519,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="13">
       <c r="C8" s="48" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="13">
       <c r="C11" s="48" t="s">
         <v>1475</v>
       </c>
@@ -50532,7 +50534,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="13">
       <c r="C14" s="48" t="s">
         <v>1476</v>
       </c>
@@ -50542,7 +50544,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" ht="13">
       <c r="C17" s="48" t="s">
         <v>1477</v>
       </c>
@@ -50552,7 +50554,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" ht="13">
       <c r="C21" s="48" t="s">
         <v>1478</v>
       </c>
@@ -50571,9 +50573,9 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -50638,37 +50640,37 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="13">
       <c r="C10" s="48" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="13">
       <c r="C13" s="48" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="13">
       <c r="C16" s="48" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" ht="13">
       <c r="C20" s="48" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" ht="13">
       <c r="C23" s="48" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" ht="13">
       <c r="C26" s="48" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" ht="13">
       <c r="C30" s="48" t="s">
         <v>1457</v>
       </c>
@@ -50682,21 +50684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -50810,24 +50797,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D24D0A80-C9F7-4996-BF99-EBD1796965B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B841A15-2A50-4D71-BDCC-63244230A1CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601B0B15-93E0-46F0-9CE9-49605130D0F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50841,4 +50826,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D24D0A80-C9F7-4996-BF99-EBD1796965B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B841A15-2A50-4D71-BDCC-63244230A1CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>